--- a/my_rank/深证成指.xlsx
+++ b/my_rank/深证成指.xlsx
@@ -466,13 +466,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22413</v>
+        <v>41424</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7301517896183397</v>
+        <v>0.5481484842984208</v>
       </c>
       <c r="E2" t="n">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14389</v>
+        <v>24845</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2289337247798114</v>
+        <v>0.171968596841532</v>
       </c>
       <c r="E3" t="n">
-        <v>486</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4">
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21062</v>
+        <v>37299</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6457617590105565</v>
+        <v>0.4545516427663823</v>
       </c>
       <c r="E4" t="n">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23023</v>
+        <v>44712</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7682553563620463</v>
+        <v>0.622753675803231</v>
       </c>
       <c r="E5" t="n">
-        <v>190</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24965</v>
+        <v>48147</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8895621213067649</v>
+        <v>0.7006943183880923</v>
       </c>
       <c r="E6" t="n">
-        <v>62</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7">
@@ -561,13 +561,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21326</v>
+        <v>38591</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6622524829783247</v>
+        <v>0.4838673080413868</v>
       </c>
       <c r="E7" t="n">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8">
@@ -580,13 +580,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>23851</v>
+        <v>46677</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8199762633518646</v>
+        <v>0.6673398075875839</v>
       </c>
       <c r="E8" t="n">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9">
@@ -599,13 +599,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>22597</v>
+        <v>35885</v>
       </c>
       <c r="D9" t="n">
-        <v>0.741645324504966</v>
+        <v>0.4224677799963696</v>
       </c>
       <c r="E9" t="n">
-        <v>222</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>22079</v>
+        <v>43588</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7092885252045724</v>
+        <v>0.5972499546197132</v>
       </c>
       <c r="E10" t="n">
-        <v>250</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11">
@@ -637,13 +637,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>22622</v>
+        <v>44123</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7432069460928228</v>
+        <v>0.6093891813396261</v>
       </c>
       <c r="E11" t="n">
-        <v>217</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19875</v>
+        <v>36202</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5716159660191142</v>
+        <v>0.4296605554547105</v>
       </c>
       <c r="E12" t="n">
-        <v>360</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13">
@@ -675,13 +675,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>20126</v>
+        <v>37252</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5872946467611968</v>
+        <v>0.4534852060265021</v>
       </c>
       <c r="E13" t="n">
-        <v>351</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14">
@@ -694,13 +694,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>23731</v>
+        <v>44447</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8124804797301518</v>
+        <v>0.6167407878017789</v>
       </c>
       <c r="E14" t="n">
-        <v>144</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15">
@@ -713,13 +713,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>26342</v>
+        <v>57990</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9755762383659192</v>
+        <v>0.9240333998910873</v>
       </c>
       <c r="E15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -732,13 +732,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>23843</v>
+        <v>38248</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8194765444437504</v>
+        <v>0.4760845888546016</v>
       </c>
       <c r="E16" t="n">
-        <v>137</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17">
@@ -751,13 +751,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>25196</v>
+        <v>51877</v>
       </c>
       <c r="D17" t="n">
-        <v>0.903991504778562</v>
+        <v>0.7853285532764567</v>
       </c>
       <c r="E17" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
@@ -770,13 +770,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>26517</v>
+        <v>54875</v>
       </c>
       <c r="D18" t="n">
-        <v>0.986507589480917</v>
+        <v>0.8533536031947722</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
@@ -789,13 +789,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>25054</v>
+        <v>51201</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8951214941595352</v>
+        <v>0.7699900163369032</v>
       </c>
       <c r="E19" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
@@ -808,13 +808,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>23903</v>
+        <v>49792</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8232244362546067</v>
+        <v>0.7380196042838991</v>
       </c>
       <c r="E20" t="n">
-        <v>131</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21">
@@ -827,13 +827,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>22648</v>
+        <v>37170</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7448310325441939</v>
+        <v>0.4516246142675622</v>
       </c>
       <c r="E21" t="n">
-        <v>213</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22">
@@ -846,13 +846,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>20095</v>
+        <v>27636</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5853582359922543</v>
+        <v>0.2352967870756943</v>
       </c>
       <c r="E22" t="n">
-        <v>353</v>
+        <v>446</v>
       </c>
     </row>
     <row r="23">
@@ -865,10 +865,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>21907</v>
+        <v>39426</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6985445686801174</v>
+        <v>0.5028135777818116</v>
       </c>
       <c r="E23" t="n">
         <v>261</v>
@@ -884,13 +884,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>23237</v>
+        <v>48828</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7816228371541009</v>
+        <v>0.7161463060446542</v>
       </c>
       <c r="E24" t="n">
-        <v>174</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25">
@@ -903,13 +903,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>19872</v>
+        <v>36898</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.445452895262298</v>
       </c>
       <c r="E25" t="n">
-        <v>361</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26">
@@ -922,13 +922,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>24989</v>
+        <v>49053</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8910612780311075</v>
+        <v>0.7212515883100381</v>
       </c>
       <c r="E26" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
@@ -941,13 +941,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>18772</v>
+        <v>35945</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5027172215628709</v>
+        <v>0.423829188600472</v>
       </c>
       <c r="E27" t="n">
-        <v>400</v>
+        <v>329</v>
       </c>
     </row>
     <row r="28">
@@ -960,13 +960,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>26525</v>
+        <v>58911</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9870073083890312</v>
+        <v>0.9449310219640588</v>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>21046</v>
+        <v>35335</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6447623211943282</v>
+        <v>0.4099882011254311</v>
       </c>
       <c r="E29" t="n">
-        <v>308</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30">
@@ -998,13 +998,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>23264</v>
+        <v>50617</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7833093884689862</v>
+        <v>0.7567389725903068</v>
       </c>
       <c r="E30" t="n">
-        <v>172</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31">
@@ -1017,13 +1017,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>22913</v>
+        <v>44830</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7613842213754763</v>
+        <v>0.6254311127246324</v>
       </c>
       <c r="E31" t="n">
-        <v>197</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32">
@@ -1036,13 +1036,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>23958</v>
+        <v>43482</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8266600037478918</v>
+        <v>0.5948447994191324</v>
       </c>
       <c r="E32" t="n">
-        <v>127</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>21328</v>
+        <v>41425</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6623774127053532</v>
+        <v>0.5481711744418225</v>
       </c>
       <c r="E33" t="n">
-        <v>292</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34">
@@ -1074,13 +1074,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>24220</v>
+        <v>45411</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8430257979886314</v>
+        <v>0.6386140860410238</v>
       </c>
       <c r="E34" t="n">
-        <v>108</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35">
@@ -1093,13 +1093,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>22347</v>
+        <v>36050</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7260291086263977</v>
+        <v>0.4262116536576511</v>
       </c>
       <c r="E35" t="n">
-        <v>238</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36">
@@ -1112,13 +1112,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>24987</v>
+        <v>50488</v>
       </c>
       <c r="D36" t="n">
-        <v>0.890936348304079</v>
+        <v>0.7538119440914867</v>
       </c>
       <c r="E36" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37">
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>16791</v>
+        <v>31232</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3789743269410956</v>
+        <v>0.3168905427482301</v>
       </c>
       <c r="E37" t="n">
-        <v>454</v>
+        <v>396</v>
       </c>
     </row>
     <row r="38">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>20426</v>
+        <v>38267</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6060341058154788</v>
+        <v>0.476515701579234</v>
       </c>
       <c r="E38" t="n">
-        <v>337</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39">
@@ -1169,13 +1169,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>21633</v>
+        <v>39566</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6814291960772065</v>
+        <v>0.5059901978580504</v>
       </c>
       <c r="E39" t="n">
-        <v>279</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40">
@@ -1188,13 +1188,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>21217</v>
+        <v>35181</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6554438128552689</v>
+        <v>0.4064939190415683</v>
       </c>
       <c r="E40" t="n">
-        <v>298</v>
+        <v>342</v>
       </c>
     </row>
     <row r="41">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>21893</v>
+        <v>39096</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6976700605909176</v>
+        <v>0.4953258304592485</v>
       </c>
       <c r="E41" t="n">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42">
@@ -1226,13 +1226,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>26183</v>
+        <v>48531</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9656443250671497</v>
+        <v>0.7094073334543475</v>
       </c>
       <c r="E42" t="n">
-        <v>15</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43">
@@ -1245,13 +1245,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>23141</v>
+        <v>38277</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7756262102567306</v>
+        <v>0.4767426030132511</v>
       </c>
       <c r="E43" t="n">
-        <v>181</v>
+        <v>283</v>
       </c>
     </row>
     <row r="44">
@@ -1264,13 +1264,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>21870</v>
+        <v>41114</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6962333687300893</v>
+        <v>0.5411145398438918</v>
       </c>
       <c r="E44" t="n">
-        <v>266</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45">
@@ -1283,13 +1283,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>22563</v>
+        <v>40802</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7395215191454807</v>
+        <v>0.5340352151025595</v>
       </c>
       <c r="E45" t="n">
-        <v>226</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46">
@@ -1302,13 +1302,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>21701</v>
+        <v>39810</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6856768067961772</v>
+        <v>0.5115265928480668</v>
       </c>
       <c r="E46" t="n">
-        <v>274</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47">
@@ -1321,13 +1321,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>18285</v>
+        <v>29039</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4722968330314198</v>
+        <v>0.2671310582682883</v>
       </c>
       <c r="E47" t="n">
-        <v>418</v>
+        <v>433</v>
       </c>
     </row>
     <row r="48">
@@ -1340,13 +1340,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>24617</v>
+        <v>50646</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8678243488037979</v>
+        <v>0.7573969867489563</v>
       </c>
       <c r="E48" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49">
@@ -1359,13 +1359,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>24814</v>
+        <v>43216</v>
       </c>
       <c r="D49" t="n">
-        <v>0.8801299269161097</v>
+        <v>0.5888092212742785</v>
       </c>
       <c r="E49" t="n">
-        <v>68</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50">
@@ -1378,13 +1378,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>22375</v>
+        <v>34726</v>
       </c>
       <c r="D50" t="n">
-        <v>0.7277781248047973</v>
+        <v>0.396169903793792</v>
       </c>
       <c r="E50" t="n">
-        <v>237</v>
+        <v>352</v>
       </c>
     </row>
     <row r="51">
@@ -1397,13 +1397,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>26236</v>
+        <v>59139</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9689549628334062</v>
+        <v>0.9501043746596478</v>
       </c>
       <c r="E51" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
@@ -1416,13 +1416,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>19272</v>
+        <v>36200</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5339496533200075</v>
+        <v>0.429615175167907</v>
       </c>
       <c r="E52" t="n">
-        <v>387</v>
+        <v>327</v>
       </c>
     </row>
     <row r="53">
@@ -1435,13 +1435,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>19855</v>
+        <v>36604</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5703666687488288</v>
+        <v>0.4387819931021964</v>
       </c>
       <c r="E53" t="n">
-        <v>362</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54">
@@ -1454,13 +1454,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>23860</v>
+        <v>48155</v>
       </c>
       <c r="D54" t="n">
-        <v>0.820538447123493</v>
+        <v>0.7008758395353059</v>
       </c>
       <c r="E54" t="n">
-        <v>134</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55">
@@ -1473,13 +1473,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>18618</v>
+        <v>29717</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4930976325816728</v>
+        <v>0.2825149754946451</v>
       </c>
       <c r="E55" t="n">
-        <v>404</v>
+        <v>424</v>
       </c>
     </row>
     <row r="56">
@@ -1492,13 +1492,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>24818</v>
+        <v>46646</v>
       </c>
       <c r="D56" t="n">
-        <v>0.8803797863701668</v>
+        <v>0.6666364131421311</v>
       </c>
       <c r="E56" t="n">
-        <v>67</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>14143</v>
+        <v>23707</v>
       </c>
       <c r="D57" t="n">
-        <v>0.2135673683553001</v>
+        <v>0.1461472136503903</v>
       </c>
       <c r="E57" t="n">
-        <v>490</v>
+        <v>475</v>
       </c>
     </row>
     <row r="58">
@@ -1530,13 +1530,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>22801</v>
+        <v>40127</v>
       </c>
       <c r="D58" t="n">
-        <v>0.7543881566618776</v>
+        <v>0.5187193683064077</v>
       </c>
       <c r="E58" t="n">
-        <v>202</v>
+        <v>244</v>
       </c>
     </row>
     <row r="59">
@@ -1549,13 +1549,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>24554</v>
+        <v>42238</v>
       </c>
       <c r="D59" t="n">
-        <v>0.8638890624023986</v>
+        <v>0.5666182610274096</v>
       </c>
       <c r="E59" t="n">
-        <v>82</v>
+        <v>204</v>
       </c>
     </row>
     <row r="60">
@@ -1568,13 +1568,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>24331</v>
+        <v>49043</v>
       </c>
       <c r="D60" t="n">
-        <v>0.8499593978387158</v>
+        <v>0.7210246868760211</v>
       </c>
       <c r="E60" t="n">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61">
@@ -1587,13 +1587,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>25717</v>
+        <v>56432</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9365356986694984</v>
+        <v>0.8886821564712289</v>
       </c>
       <c r="E61" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>19982</v>
+        <v>34855</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5782997064151415</v>
+        <v>0.3990969322926121</v>
       </c>
       <c r="E62" t="n">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="63">
@@ -1625,13 +1625,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>22003</v>
+        <v>37768</v>
       </c>
       <c r="D63" t="n">
-        <v>0.7045411955774876</v>
+        <v>0.4651933200217825</v>
       </c>
       <c r="E63" t="n">
-        <v>257</v>
+        <v>294</v>
       </c>
     </row>
     <row r="64">
@@ -1644,13 +1644,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>21667</v>
+        <v>39850</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6835530014366918</v>
+        <v>0.5124341985841351</v>
       </c>
       <c r="E64" t="n">
-        <v>277</v>
+        <v>251</v>
       </c>
     </row>
     <row r="65">
@@ -1663,13 +1663,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>21517</v>
+        <v>40993</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6741832719095509</v>
+        <v>0.5383690324922854</v>
       </c>
       <c r="E65" t="n">
-        <v>284</v>
+        <v>232</v>
       </c>
     </row>
     <row r="66">
@@ -1682,13 +1682,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>22954</v>
+        <v>35070</v>
       </c>
       <c r="D66" t="n">
-        <v>0.7639452807795615</v>
+        <v>0.4039753131239789</v>
       </c>
       <c r="E66" t="n">
-        <v>195</v>
+        <v>345</v>
       </c>
     </row>
     <row r="67">
@@ -1701,13 +1701,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>22760</v>
+        <v>46888</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7518270972577925</v>
+        <v>0.672127427845344</v>
       </c>
       <c r="E67" t="n">
-        <v>204</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68">
@@ -1720,13 +1720,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>14233</v>
+        <v>23208</v>
       </c>
       <c r="D68" t="n">
-        <v>0.2191892060715847</v>
+        <v>0.1348248320929388</v>
       </c>
       <c r="E68" t="n">
-        <v>488</v>
+        <v>478</v>
       </c>
     </row>
     <row r="69">
@@ -1739,13 +1739,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>15235</v>
+        <v>27370</v>
       </c>
       <c r="D69" t="n">
-        <v>0.2817789993128865</v>
+        <v>0.2292612089308405</v>
       </c>
       <c r="E69" t="n">
-        <v>475</v>
+        <v>449</v>
       </c>
     </row>
     <row r="70">
@@ -1758,13 +1758,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>15674</v>
+        <v>24309</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3092010743956524</v>
+        <v>0.1598066799782175</v>
       </c>
       <c r="E70" t="n">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="71">
@@ -1777,13 +1777,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>19381</v>
+        <v>34957</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5407583234430633</v>
+        <v>0.4014113269195861</v>
       </c>
       <c r="E71" t="n">
-        <v>383</v>
+        <v>349</v>
       </c>
     </row>
     <row r="72">
@@ -1796,13 +1796,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>23319</v>
+        <v>47078</v>
       </c>
       <c r="D72" t="n">
-        <v>0.7867449559622712</v>
+        <v>0.6764385550916682</v>
       </c>
       <c r="E72" t="n">
-        <v>168</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73">
@@ -1815,13 +1815,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>22714</v>
+        <v>40990</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7489537135361359</v>
+        <v>0.5383009620620802</v>
       </c>
       <c r="E73" t="n">
-        <v>208</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74">
@@ -1834,13 +1834,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>24663</v>
+        <v>46438</v>
       </c>
       <c r="D74" t="n">
-        <v>0.8706977325254545</v>
+        <v>0.6619168633145761</v>
       </c>
       <c r="E74" t="n">
-        <v>75</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75">
@@ -1853,13 +1853,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>26530</v>
+        <v>54989</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9873196327066025</v>
+        <v>0.8559402795425667</v>
       </c>
       <c r="E75" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76">
@@ -1872,13 +1872,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>26344</v>
+        <v>59799</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9757011680929477</v>
+        <v>0.965079869304774</v>
       </c>
       <c r="E76" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
@@ -1891,13 +1891,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>15624</v>
+        <v>22703</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3060778312199388</v>
+        <v>0.1233663096750771</v>
       </c>
       <c r="E77" t="n">
-        <v>469</v>
+        <v>482</v>
       </c>
     </row>
     <row r="78">
@@ -1910,13 +1910,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>17225</v>
+        <v>29948</v>
       </c>
       <c r="D78" t="n">
-        <v>0.4060840777062902</v>
+        <v>0.2877563986204393</v>
       </c>
       <c r="E78" t="n">
-        <v>442</v>
+        <v>422</v>
       </c>
     </row>
     <row r="79">
@@ -1929,13 +1929,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>20021</v>
+        <v>33279</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5807358360921981</v>
+        <v>0.363337266291523</v>
       </c>
       <c r="E79" t="n">
-        <v>357</v>
+        <v>374</v>
       </c>
     </row>
     <row r="80">
@@ -1948,13 +1948,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>14524</v>
+        <v>23132</v>
       </c>
       <c r="D80" t="n">
-        <v>0.2373664813542382</v>
+        <v>0.1331003811944091</v>
       </c>
       <c r="E80" t="n">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="81">
@@ -1967,13 +1967,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>24144</v>
+        <v>48405</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8382784683615466</v>
+        <v>0.7065483753857325</v>
       </c>
       <c r="E81" t="n">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82">
@@ -1986,13 +1986,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>15024</v>
+        <v>24977</v>
       </c>
       <c r="D82" t="n">
-        <v>0.2685989131113748</v>
+        <v>0.1749636957705573</v>
       </c>
       <c r="E82" t="n">
-        <v>480</v>
+        <v>465</v>
       </c>
     </row>
     <row r="83">
@@ -2005,13 +2005,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>23761</v>
+        <v>48102</v>
       </c>
       <c r="D83" t="n">
-        <v>0.81435442563558</v>
+        <v>0.6996732619350154</v>
       </c>
       <c r="E83" t="n">
-        <v>141</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84">
@@ -2024,13 +2024,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>21447</v>
+        <v>39609</v>
       </c>
       <c r="D84" t="n">
-        <v>0.6698107314635517</v>
+        <v>0.5069658740243238</v>
       </c>
       <c r="E84" t="n">
-        <v>287</v>
+        <v>255</v>
       </c>
     </row>
     <row r="85">
@@ -2043,13 +2043,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>23167</v>
+        <v>37708</v>
       </c>
       <c r="D85" t="n">
-        <v>0.7772502967081016</v>
+        <v>0.4638319114176802</v>
       </c>
       <c r="E85" t="n">
-        <v>179</v>
+        <v>297</v>
       </c>
     </row>
     <row r="86">
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>20546</v>
+        <v>34229</v>
       </c>
       <c r="D86" t="n">
-        <v>0.6135298894371916</v>
+        <v>0.384892902523144</v>
       </c>
       <c r="E86" t="n">
-        <v>333</v>
+        <v>361</v>
       </c>
     </row>
     <row r="87">
@@ -2081,13 +2081,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>25643</v>
+        <v>56360</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9319132987694422</v>
+        <v>0.8870484661463061</v>
       </c>
       <c r="E87" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88">
@@ -2100,13 +2100,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>25409</v>
+        <v>54453</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9172965207071022</v>
+        <v>0.8437783626792521</v>
       </c>
       <c r="E88" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89">
@@ -2119,13 +2119,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>23328</v>
+        <v>44777</v>
       </c>
       <c r="D89" t="n">
-        <v>0.7873071397338997</v>
+        <v>0.624228535124342</v>
       </c>
       <c r="E89" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="90">
@@ -2138,13 +2138,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>20133</v>
+        <v>33088</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5877319008057967</v>
+        <v>0.3590034489017971</v>
       </c>
       <c r="E90" t="n">
-        <v>350</v>
+        <v>375</v>
       </c>
     </row>
     <row r="91">
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>18041</v>
+        <v>24507</v>
       </c>
       <c r="D91" t="n">
-        <v>0.4570554063339372</v>
+        <v>0.1642993283717553</v>
       </c>
       <c r="E91" t="n">
-        <v>424</v>
+        <v>470</v>
       </c>
     </row>
     <row r="92">
@@ -2176,13 +2176,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>20359</v>
+        <v>31153</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6018489599600225</v>
+        <v>0.3150980214194954</v>
       </c>
       <c r="E92" t="n">
-        <v>344</v>
+        <v>400</v>
       </c>
     </row>
     <row r="93">
@@ -2195,13 +2195,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>17345</v>
+        <v>28433</v>
       </c>
       <c r="D93" t="n">
-        <v>0.413579861328003</v>
+        <v>0.2533808313668542</v>
       </c>
       <c r="E93" t="n">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="94">
@@ -2214,13 +2214,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>26022</v>
+        <v>52647</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9555874820413517</v>
+        <v>0.8027999636957706</v>
       </c>
       <c r="E94" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95">
@@ -2233,13 +2233,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>21882</v>
+        <v>39250</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6969829470922606</v>
+        <v>0.4988201125431113</v>
       </c>
       <c r="E95" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="96">
@@ -2252,13 +2252,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>20667</v>
+        <v>40327</v>
       </c>
       <c r="D96" t="n">
-        <v>0.6210881379224187</v>
+        <v>0.523257396986749</v>
       </c>
       <c r="E96" t="n">
-        <v>327</v>
+        <v>242</v>
       </c>
     </row>
     <row r="97">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>26733</v>
+        <v>61338</v>
       </c>
       <c r="D97" t="n">
         <v>1</v>
@@ -2290,13 +2290,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>23924</v>
+        <v>47701</v>
       </c>
       <c r="D98" t="n">
-        <v>0.8245361983884065</v>
+        <v>0.6905745144309312</v>
       </c>
       <c r="E98" t="n">
-        <v>129</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99">
@@ -2309,13 +2309,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>26404</v>
+        <v>55592</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9794490599038042</v>
+        <v>0.8696224360137956</v>
       </c>
       <c r="E99" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100">
@@ -2328,13 +2328,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>15294</v>
+        <v>24703</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2854644262602286</v>
+        <v>0.1687465964784897</v>
       </c>
       <c r="E100" t="n">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="101">
@@ -2347,13 +2347,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>13436</v>
+        <v>22035</v>
       </c>
       <c r="D101" t="n">
-        <v>0.169404709850709</v>
+        <v>0.1082092938827373</v>
       </c>
       <c r="E101" t="n">
-        <v>494</v>
+        <v>484</v>
       </c>
     </row>
     <row r="102">
@@ -2366,13 +2366,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>22806</v>
+        <v>41154</v>
       </c>
       <c r="D102" t="n">
-        <v>0.7547004809794491</v>
+        <v>0.5420221455799601</v>
       </c>
       <c r="E102" t="n">
-        <v>201</v>
+        <v>229</v>
       </c>
     </row>
     <row r="103">
@@ -2385,13 +2385,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>19325</v>
+        <v>32041</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5372602910862639</v>
+        <v>0.3352468687602105</v>
       </c>
       <c r="E103" t="n">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="104">
@@ -2404,13 +2404,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>22580</v>
+        <v>42117</v>
       </c>
       <c r="D104" t="n">
-        <v>0.7405834218252233</v>
+        <v>0.5638727536758033</v>
       </c>
       <c r="E104" t="n">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105">
@@ -2423,13 +2423,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>25286</v>
+        <v>55663</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9096133424948466</v>
+        <v>0.8712334361953168</v>
       </c>
       <c r="E105" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106">
@@ -2442,13 +2442,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>22490</v>
+        <v>47341</v>
       </c>
       <c r="D106" t="n">
-        <v>0.7349615841089387</v>
+        <v>0.6824060628063169</v>
       </c>
       <c r="E106" t="n">
-        <v>229</v>
+        <v>116</v>
       </c>
     </row>
     <row r="107">
@@ -2461,13 +2461,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>24374</v>
+        <v>42847</v>
       </c>
       <c r="D107" t="n">
-        <v>0.8526453869698295</v>
+        <v>0.5804365583590488</v>
       </c>
       <c r="E107" t="n">
-        <v>97</v>
+        <v>198</v>
       </c>
     </row>
     <row r="108">
@@ -2480,13 +2480,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>23294</v>
+        <v>46455</v>
       </c>
       <c r="D108" t="n">
-        <v>0.7851833343744143</v>
+        <v>0.6623025957524051</v>
       </c>
       <c r="E108" t="n">
-        <v>169</v>
+        <v>132</v>
       </c>
     </row>
     <row r="109">
@@ -2499,13 +2499,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>20244</v>
+        <v>34235</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5946655006558811</v>
+        <v>0.3850290433835542</v>
       </c>
       <c r="E109" t="n">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="110">
@@ -2518,13 +2518,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>22211</v>
+        <v>41924</v>
       </c>
       <c r="D110" t="n">
-        <v>0.7175338871884565</v>
+        <v>0.5594935559992739</v>
       </c>
       <c r="E110" t="n">
-        <v>245</v>
+        <v>215</v>
       </c>
     </row>
     <row r="111">
@@ -2537,13 +2537,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>22632</v>
+        <v>41993</v>
       </c>
       <c r="D111" t="n">
-        <v>0.7438315947279656</v>
+        <v>0.5610591758939917</v>
       </c>
       <c r="E111" t="n">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="112">
@@ -2556,13 +2556,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>18018</v>
+        <v>30436</v>
       </c>
       <c r="D112" t="n">
-        <v>0.4556187144731089</v>
+        <v>0.298829188600472</v>
       </c>
       <c r="E112" t="n">
-        <v>425</v>
+        <v>413</v>
       </c>
     </row>
     <row r="113">
@@ -2575,13 +2575,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>22687</v>
+        <v>37869</v>
       </c>
       <c r="D113" t="n">
-        <v>0.7472671622212506</v>
+        <v>0.4674850245053549</v>
       </c>
       <c r="E113" t="n">
-        <v>210</v>
+        <v>293</v>
       </c>
     </row>
     <row r="114">
@@ -2594,13 +2594,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>20369</v>
+        <v>30954</v>
       </c>
       <c r="D114" t="n">
-        <v>0.6024736085951652</v>
+        <v>0.3105826828825558</v>
       </c>
       <c r="E114" t="n">
-        <v>341</v>
+        <v>404</v>
       </c>
     </row>
     <row r="115">
@@ -2613,13 +2613,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>18082</v>
+        <v>27655</v>
       </c>
       <c r="D115" t="n">
-        <v>0.4596164657380223</v>
+        <v>0.2357278998003267</v>
       </c>
       <c r="E115" t="n">
-        <v>423</v>
+        <v>445</v>
       </c>
     </row>
     <row r="116">
@@ -2632,13 +2632,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>22834</v>
+        <v>45580</v>
       </c>
       <c r="D116" t="n">
-        <v>0.7564494971578487</v>
+        <v>0.6424487202759122</v>
       </c>
       <c r="E116" t="n">
-        <v>200</v>
+        <v>149</v>
       </c>
     </row>
     <row r="117">
@@ -2651,13 +2651,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>23485</v>
+        <v>44443</v>
       </c>
       <c r="D117" t="n">
-        <v>0.7971141233056406</v>
+        <v>0.6166500272281721</v>
       </c>
       <c r="E117" t="n">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="118">
@@ -2670,13 +2670,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>21578</v>
+        <v>39336</v>
       </c>
       <c r="D118" t="n">
-        <v>0.6779936285839215</v>
+        <v>0.500771464875658</v>
       </c>
       <c r="E118" t="n">
-        <v>281</v>
+        <v>263</v>
       </c>
     </row>
     <row r="119">
@@ -2689,13 +2689,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>13054</v>
+        <v>18760</v>
       </c>
       <c r="D119" t="n">
-        <v>0.1455431319882566</v>
+        <v>0.03389907424214921</v>
       </c>
       <c r="E119" t="n">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="120">
@@ -2708,13 +2708,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>22671</v>
+        <v>44421</v>
       </c>
       <c r="D120" t="n">
-        <v>0.7462677244050222</v>
+        <v>0.6161508440733345</v>
       </c>
       <c r="E120" t="n">
-        <v>211</v>
+        <v>170</v>
       </c>
     </row>
     <row r="121">
@@ -2727,13 +2727,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>19903</v>
+        <v>34348</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5733649821975139</v>
+        <v>0.387593029587947</v>
       </c>
       <c r="E121" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="122">
@@ -2746,13 +2746,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>23045</v>
+        <v>45297</v>
       </c>
       <c r="D122" t="n">
-        <v>0.7696295833593604</v>
+        <v>0.6360274096932292</v>
       </c>
       <c r="E122" t="n">
-        <v>186</v>
+        <v>153</v>
       </c>
     </row>
     <row r="123">
@@ -2765,13 +2765,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>23638</v>
+        <v>41575</v>
       </c>
       <c r="D123" t="n">
-        <v>0.8066712474233244</v>
+        <v>0.5515746959520784</v>
       </c>
       <c r="E123" t="n">
-        <v>149</v>
+        <v>221</v>
       </c>
     </row>
     <row r="124">
@@ -2784,13 +2784,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>21083</v>
+        <v>34566</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6470735211443563</v>
+        <v>0.392539480849519</v>
       </c>
       <c r="E124" t="n">
-        <v>304</v>
+        <v>355</v>
       </c>
     </row>
     <row r="125">
@@ -2803,13 +2803,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>21655</v>
+        <v>41387</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6828034230745206</v>
+        <v>0.5473089489925577</v>
       </c>
       <c r="E125" t="n">
-        <v>278</v>
+        <v>225</v>
       </c>
     </row>
     <row r="126">
@@ -2822,13 +2822,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>22260</v>
+        <v>43032</v>
       </c>
       <c r="D126" t="n">
-        <v>0.7205946655006559</v>
+        <v>0.5846342348883645</v>
       </c>
       <c r="E126" t="n">
-        <v>241</v>
+        <v>197</v>
       </c>
     </row>
     <row r="127">
@@ -2841,13 +2841,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>24286</v>
+        <v>45733</v>
       </c>
       <c r="D127" t="n">
-        <v>0.8471484789805734</v>
+        <v>0.6459203122163732</v>
       </c>
       <c r="E127" t="n">
-        <v>104</v>
+        <v>147</v>
       </c>
     </row>
     <row r="128">
@@ -2860,13 +2860,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>24628</v>
+        <v>50541</v>
       </c>
       <c r="D128" t="n">
-        <v>0.8685114623024549</v>
+        <v>0.7550145216917771</v>
       </c>
       <c r="E128" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="129">
@@ -2879,13 +2879,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>24268</v>
+        <v>51829</v>
       </c>
       <c r="D129" t="n">
-        <v>0.8460241114373165</v>
+        <v>0.7842394263931748</v>
       </c>
       <c r="E129" t="n">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="130">
@@ -2898,13 +2898,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>22730</v>
+        <v>35572</v>
       </c>
       <c r="D130" t="n">
-        <v>0.7499531513523643</v>
+        <v>0.4153657651116355</v>
       </c>
       <c r="E130" t="n">
-        <v>206</v>
+        <v>338</v>
       </c>
     </row>
     <row r="131">
@@ -2917,13 +2917,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>16930</v>
+        <v>30775</v>
       </c>
       <c r="D131" t="n">
-        <v>0.3876569429695796</v>
+        <v>0.3065211472136504</v>
       </c>
       <c r="E131" t="n">
-        <v>452</v>
+        <v>407</v>
       </c>
     </row>
     <row r="132">
@@ -2936,13 +2936,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>21219</v>
+        <v>35636</v>
       </c>
       <c r="D132" t="n">
-        <v>0.6555687425822975</v>
+        <v>0.4168179342893447</v>
       </c>
       <c r="E132" t="n">
-        <v>297</v>
+        <v>336</v>
       </c>
     </row>
     <row r="133">
@@ -2955,13 +2955,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>22061</v>
+        <v>38416</v>
       </c>
       <c r="D133" t="n">
-        <v>0.7081641576613155</v>
+        <v>0.4798965329460882</v>
       </c>
       <c r="E133" t="n">
-        <v>251</v>
+        <v>282</v>
       </c>
     </row>
     <row r="134">
@@ -2974,13 +2974,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>22622</v>
+        <v>46693</v>
       </c>
       <c r="D134" t="n">
-        <v>0.7432069460928228</v>
+        <v>0.6677028498820112</v>
       </c>
       <c r="E134" t="n">
-        <v>218</v>
+        <v>127</v>
       </c>
     </row>
     <row r="135">
@@ -2993,13 +2993,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>12862</v>
+        <v>21265</v>
       </c>
       <c r="D135" t="n">
-        <v>0.1335498781935162</v>
+        <v>0.09073788346342349</v>
       </c>
       <c r="E135" t="n">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="136">
@@ -3012,13 +3012,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>24297</v>
+        <v>44136</v>
       </c>
       <c r="D136" t="n">
-        <v>0.8478355924792305</v>
+        <v>0.6096841532038483</v>
       </c>
       <c r="E136" t="n">
-        <v>102</v>
+        <v>172</v>
       </c>
     </row>
     <row r="137">
@@ -3031,13 +3031,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>19792</v>
+        <v>35214</v>
       </c>
       <c r="D137" t="n">
-        <v>0.5664313823474296</v>
+        <v>0.4072426937738247</v>
       </c>
       <c r="E137" t="n">
-        <v>364</v>
+        <v>341</v>
       </c>
     </row>
     <row r="138">
@@ -3050,13 +3050,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>19502</v>
+        <v>34225</v>
       </c>
       <c r="D138" t="n">
-        <v>0.5483165719282903</v>
+        <v>0.3848021419495371</v>
       </c>
       <c r="E138" t="n">
-        <v>378</v>
+        <v>362</v>
       </c>
     </row>
     <row r="139">
@@ -3069,13 +3069,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>24171</v>
+        <v>45198</v>
       </c>
       <c r="D139" t="n">
-        <v>0.839965019676432</v>
+        <v>0.6337810854964603</v>
       </c>
       <c r="E139" t="n">
-        <v>112</v>
+        <v>155</v>
       </c>
     </row>
     <row r="140">
@@ -3088,13 +3088,13 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>14068</v>
+        <v>21653</v>
       </c>
       <c r="D140" t="n">
-        <v>0.2088825035917297</v>
+        <v>0.09954165910328554</v>
       </c>
       <c r="E140" t="n">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="141">
@@ -3107,13 +3107,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>24218</v>
+        <v>50947</v>
       </c>
       <c r="D141" t="n">
-        <v>0.8429008682616028</v>
+        <v>0.7642267199128698</v>
       </c>
       <c r="E141" t="n">
-        <v>109</v>
+        <v>61</v>
       </c>
     </row>
     <row r="142">
@@ -3126,13 +3126,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>23046</v>
+        <v>44887</v>
       </c>
       <c r="D142" t="n">
-        <v>0.7696920482228746</v>
+        <v>0.6267244508985297</v>
       </c>
       <c r="E142" t="n">
-        <v>185</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143">
@@ -3145,13 +3145,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>24427</v>
+        <v>41937</v>
       </c>
       <c r="D143" t="n">
-        <v>0.8559560247360859</v>
+        <v>0.5597885278634961</v>
       </c>
       <c r="E143" t="n">
-        <v>95</v>
+        <v>214</v>
       </c>
     </row>
     <row r="144">
@@ -3164,13 +3164,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>24133</v>
+        <v>50310</v>
       </c>
       <c r="D144" t="n">
-        <v>0.8375913548628896</v>
+        <v>0.749773098565983</v>
       </c>
       <c r="E144" t="n">
-        <v>115</v>
+        <v>75</v>
       </c>
     </row>
     <row r="145">
@@ -3183,13 +3183,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>24537</v>
+        <v>37753</v>
       </c>
       <c r="D145" t="n">
-        <v>0.862827159722656</v>
+        <v>0.4648529678707569</v>
       </c>
       <c r="E145" t="n">
-        <v>85</v>
+        <v>295</v>
       </c>
     </row>
     <row r="146">
@@ -3202,13 +3202,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>17204</v>
+        <v>30449</v>
       </c>
       <c r="D146" t="n">
-        <v>0.4047723155724905</v>
+        <v>0.2991241604646941</v>
       </c>
       <c r="E146" t="n">
-        <v>443</v>
+        <v>412</v>
       </c>
     </row>
     <row r="147">
@@ -3221,13 +3221,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>23269</v>
+        <v>50275</v>
       </c>
       <c r="D147" t="n">
-        <v>0.7836217127865576</v>
+        <v>0.7489789435469232</v>
       </c>
       <c r="E147" t="n">
-        <v>171</v>
+        <v>76</v>
       </c>
     </row>
     <row r="148">
@@ -3240,13 +3240,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>15605</v>
+        <v>27063</v>
       </c>
       <c r="D148" t="n">
-        <v>0.3048909988131676</v>
+        <v>0.2222953349065166</v>
       </c>
       <c r="E148" t="n">
-        <v>470</v>
+        <v>452</v>
       </c>
     </row>
     <row r="149">
@@ -3259,13 +3259,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>24909</v>
+        <v>44089</v>
       </c>
       <c r="D149" t="n">
-        <v>0.8860640889499657</v>
+        <v>0.608617716463968</v>
       </c>
       <c r="E149" t="n">
-        <v>63</v>
+        <v>174</v>
       </c>
     </row>
     <row r="150">
@@ -3278,13 +3278,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>20326</v>
+        <v>36475</v>
       </c>
       <c r="D150" t="n">
-        <v>0.5997876194640515</v>
+        <v>0.4358549646033763</v>
       </c>
       <c r="E150" t="n">
-        <v>345</v>
+        <v>318</v>
       </c>
     </row>
     <row r="151">
@@ -3297,13 +3297,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>19637</v>
+        <v>34320</v>
       </c>
       <c r="D151" t="n">
-        <v>0.5567493285027172</v>
+        <v>0.3869577055726992</v>
       </c>
       <c r="E151" t="n">
-        <v>374</v>
+        <v>359</v>
       </c>
     </row>
     <row r="152">
@@ -3316,13 +3316,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>20022</v>
+        <v>31941</v>
       </c>
       <c r="D152" t="n">
-        <v>0.5807983009557124</v>
+        <v>0.3329778544200399</v>
       </c>
       <c r="E152" t="n">
-        <v>356</v>
+        <v>390</v>
       </c>
     </row>
     <row r="153">
@@ -3335,13 +3335,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>22541</v>
+        <v>43142</v>
       </c>
       <c r="D153" t="n">
-        <v>0.7381472921481667</v>
+        <v>0.5871301506625521</v>
       </c>
       <c r="E153" t="n">
-        <v>227</v>
+        <v>194</v>
       </c>
     </row>
     <row r="154">
@@ -3354,13 +3354,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>21576</v>
+        <v>40607</v>
       </c>
       <c r="D154" t="n">
-        <v>0.677868698856893</v>
+        <v>0.5296106371392267</v>
       </c>
       <c r="E154" t="n">
-        <v>282</v>
+        <v>238</v>
       </c>
     </row>
     <row r="155">
@@ -3373,13 +3373,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>21716</v>
+        <v>36754</v>
       </c>
       <c r="D155" t="n">
-        <v>0.6866137797488913</v>
+        <v>0.4421855146124524</v>
       </c>
       <c r="E155" t="n">
-        <v>273</v>
+        <v>315</v>
       </c>
     </row>
     <row r="156">
@@ -3392,13 +3392,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>16872</v>
+        <v>22644</v>
       </c>
       <c r="D156" t="n">
-        <v>0.3840339808857517</v>
+        <v>0.1220275912143765</v>
       </c>
       <c r="E156" t="n">
-        <v>453</v>
+        <v>483</v>
       </c>
     </row>
     <row r="157">
@@ -3411,13 +3411,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>26441</v>
+        <v>56552</v>
       </c>
       <c r="D157" t="n">
-        <v>0.9817602598538322</v>
+        <v>0.8914049736794336</v>
       </c>
       <c r="E157" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158">
@@ -3430,13 +3430,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>22040</v>
+        <v>44680</v>
       </c>
       <c r="D158" t="n">
-        <v>0.7068523955275158</v>
+        <v>0.6220275912143765</v>
       </c>
       <c r="E158" t="n">
-        <v>254</v>
+        <v>167</v>
       </c>
     </row>
     <row r="159">
@@ -3449,13 +3449,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>20046</v>
+        <v>36400</v>
       </c>
       <c r="D159" t="n">
-        <v>0.5822974576800549</v>
+        <v>0.4341532038482483</v>
       </c>
       <c r="E159" t="n">
-        <v>354</v>
+        <v>321</v>
       </c>
     </row>
     <row r="160">
@@ -3468,13 +3468,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>19256</v>
+        <v>36962</v>
       </c>
       <c r="D160" t="n">
-        <v>0.5329502155037791</v>
+        <v>0.4469050644400073</v>
       </c>
       <c r="E160" t="n">
-        <v>389</v>
+        <v>313</v>
       </c>
     </row>
     <row r="161">
@@ -3487,13 +3487,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>20388</v>
+        <v>35115</v>
       </c>
       <c r="D161" t="n">
-        <v>0.6036604410019364</v>
+        <v>0.4049963695770557</v>
       </c>
       <c r="E161" t="n">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="162">
@@ -3506,13 +3506,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>25723</v>
+        <v>50749</v>
       </c>
       <c r="D162" t="n">
-        <v>0.9369104878505841</v>
+        <v>0.759734071519332</v>
       </c>
       <c r="E162" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
     </row>
     <row r="163">
@@ -3525,13 +3525,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>23636</v>
+        <v>45814</v>
       </c>
       <c r="D163" t="n">
-        <v>0.8065463176962958</v>
+        <v>0.6477582138319115</v>
       </c>
       <c r="E163" t="n">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="164">
@@ -3544,13 +3544,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>20633</v>
+        <v>41811</v>
       </c>
       <c r="D164" t="n">
-        <v>0.6189643325629334</v>
+        <v>0.5569295697948811</v>
       </c>
       <c r="E164" t="n">
-        <v>330</v>
+        <v>218</v>
       </c>
     </row>
     <row r="165">
@@ -3563,13 +3563,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>23207</v>
+        <v>41545</v>
       </c>
       <c r="D165" t="n">
-        <v>0.7797488912486726</v>
+        <v>0.5508939916500273</v>
       </c>
       <c r="E165" t="n">
-        <v>177</v>
+        <v>222</v>
       </c>
     </row>
     <row r="166">
@@ -3582,13 +3582,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>15229</v>
+        <v>20465</v>
       </c>
       <c r="D166" t="n">
-        <v>0.2814042101318008</v>
+        <v>0.07258576874205845</v>
       </c>
       <c r="E166" t="n">
-        <v>476</v>
+        <v>492</v>
       </c>
     </row>
     <row r="167">
@@ -3601,13 +3601,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>18740</v>
+        <v>30503</v>
       </c>
       <c r="D167" t="n">
-        <v>0.5007183459304141</v>
+        <v>0.3003494282083863</v>
       </c>
       <c r="E167" t="n">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="168">
@@ -3620,13 +3620,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>20100</v>
+        <v>34669</v>
       </c>
       <c r="D168" t="n">
-        <v>0.5856705603098257</v>
+        <v>0.3948765656198947</v>
       </c>
       <c r="E168" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="169">
@@ -3639,13 +3639,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>18934</v>
+        <v>33812</v>
       </c>
       <c r="D169" t="n">
-        <v>0.5128365294521832</v>
+        <v>0.3754311127246324</v>
       </c>
       <c r="E169" t="n">
-        <v>396</v>
+        <v>367</v>
       </c>
     </row>
     <row r="170">
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>10724</v>
+        <v>18120</v>
       </c>
       <c r="D170" t="n">
-        <v>0</v>
+        <v>0.01937738246505718</v>
       </c>
       <c r="E170" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="171">
@@ -3677,13 +3677,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>20464</v>
+        <v>38777</v>
       </c>
       <c r="D171" t="n">
-        <v>0.6084077706290212</v>
+        <v>0.4880876747141042</v>
       </c>
       <c r="E171" t="n">
-        <v>335</v>
+        <v>274</v>
       </c>
     </row>
     <row r="172">
@@ -3696,13 +3696,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>23645</v>
+        <v>44797</v>
       </c>
       <c r="D172" t="n">
-        <v>0.8071085014679243</v>
+        <v>0.6246823379923762</v>
       </c>
       <c r="E172" t="n">
-        <v>148</v>
+        <v>163</v>
       </c>
     </row>
     <row r="173">
@@ -3715,13 +3715,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>19769</v>
+        <v>38630</v>
       </c>
       <c r="D173" t="n">
-        <v>0.5649946904866013</v>
+        <v>0.4847522236340533</v>
       </c>
       <c r="E173" t="n">
-        <v>366</v>
+        <v>278</v>
       </c>
     </row>
     <row r="174">
@@ -3734,13 +3734,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>19833</v>
+        <v>38863</v>
       </c>
       <c r="D174" t="n">
-        <v>0.5689924417515148</v>
+        <v>0.4900390270466509</v>
       </c>
       <c r="E174" t="n">
-        <v>363</v>
+        <v>273</v>
       </c>
     </row>
     <row r="175">
@@ -3753,13 +3753,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>22995</v>
+        <v>44062</v>
       </c>
       <c r="D175" t="n">
-        <v>0.7665063401836467</v>
+        <v>0.6080050825921219</v>
       </c>
       <c r="E175" t="n">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="176">
@@ -3772,13 +3772,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>24110</v>
+        <v>45226</v>
       </c>
       <c r="D176" t="n">
-        <v>0.8361546630020613</v>
+        <v>0.6344164095117081</v>
       </c>
       <c r="E176" t="n">
-        <v>117</v>
+        <v>154</v>
       </c>
     </row>
     <row r="177">
@@ -3791,13 +3791,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>21885</v>
+        <v>37250</v>
       </c>
       <c r="D177" t="n">
-        <v>0.6971703416828035</v>
+        <v>0.4534398257396987</v>
       </c>
       <c r="E177" t="n">
-        <v>263</v>
+        <v>303</v>
       </c>
     </row>
     <row r="178">
@@ -3810,13 +3810,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>18817</v>
+        <v>34960</v>
       </c>
       <c r="D178" t="n">
-        <v>0.5055281404210131</v>
+        <v>0.4014793973497913</v>
       </c>
       <c r="E178" t="n">
-        <v>398</v>
+        <v>348</v>
       </c>
     </row>
     <row r="179">
@@ -3829,13 +3829,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>24292</v>
+        <v>50902</v>
       </c>
       <c r="D179" t="n">
-        <v>0.847523268161659</v>
+        <v>0.763205663459793</v>
       </c>
       <c r="E179" t="n">
-        <v>103</v>
+        <v>63</v>
       </c>
     </row>
     <row r="180">
@@ -3848,10 +3848,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>21766</v>
+        <v>39056</v>
       </c>
       <c r="D180" t="n">
-        <v>0.6897370229246049</v>
+        <v>0.4944182247231803</v>
       </c>
       <c r="E180" t="n">
         <v>270</v>
@@ -3867,13 +3867,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>13817</v>
+        <v>22965</v>
       </c>
       <c r="D181" t="n">
-        <v>0.1932038228496471</v>
+        <v>0.1293111272463242</v>
       </c>
       <c r="E181" t="n">
-        <v>493</v>
+        <v>481</v>
       </c>
     </row>
     <row r="182">
@@ -3886,13 +3886,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>20923</v>
+        <v>39287</v>
       </c>
       <c r="D182" t="n">
-        <v>0.6370791429820726</v>
+        <v>0.4996596478489744</v>
       </c>
       <c r="E182" t="n">
-        <v>315</v>
+        <v>264</v>
       </c>
     </row>
     <row r="183">
@@ -3905,13 +3905,13 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>24205</v>
+        <v>49473</v>
       </c>
       <c r="D183" t="n">
-        <v>0.8420888250359173</v>
+        <v>0.7307814485387548</v>
       </c>
       <c r="E183" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="184">
@@ -3924,13 +3924,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>21262</v>
+        <v>35647</v>
       </c>
       <c r="D184" t="n">
-        <v>0.6582547317134112</v>
+        <v>0.4170675258667635</v>
       </c>
       <c r="E184" t="n">
-        <v>295</v>
+        <v>335</v>
       </c>
     </row>
     <row r="185">
@@ -3943,13 +3943,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>16535</v>
+        <v>24016</v>
       </c>
       <c r="D185" t="n">
-        <v>0.3629833218814417</v>
+        <v>0.1531584679615175</v>
       </c>
       <c r="E185" t="n">
-        <v>460</v>
+        <v>474</v>
       </c>
     </row>
     <row r="186">
@@ -3962,13 +3962,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>24776</v>
+        <v>51732</v>
       </c>
       <c r="D186" t="n">
-        <v>0.8777562621025673</v>
+        <v>0.7820384824832093</v>
       </c>
       <c r="E186" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="187">
@@ -3981,13 +3981,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>23415</v>
+        <v>46035</v>
       </c>
       <c r="D187" t="n">
-        <v>0.7927415828596415</v>
+        <v>0.6527727355236885</v>
       </c>
       <c r="E187" t="n">
-        <v>163</v>
+        <v>141</v>
       </c>
     </row>
     <row r="188">
@@ -4000,13 +4000,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>20547</v>
+        <v>35694</v>
       </c>
       <c r="D188" t="n">
-        <v>0.6135923543007058</v>
+        <v>0.4181339626066436</v>
       </c>
       <c r="E188" t="n">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="189">
@@ -4019,13 +4019,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>19694</v>
+        <v>30858</v>
       </c>
       <c r="D189" t="n">
-        <v>0.5603098257230308</v>
+        <v>0.308404429115992</v>
       </c>
       <c r="E189" t="n">
-        <v>369</v>
+        <v>405</v>
       </c>
     </row>
     <row r="190">
@@ -4038,13 +4038,13 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>21683</v>
+        <v>40550</v>
       </c>
       <c r="D190" t="n">
-        <v>0.6845524392529202</v>
+        <v>0.5283172989653294</v>
       </c>
       <c r="E190" t="n">
-        <v>275</v>
+        <v>241</v>
       </c>
     </row>
     <row r="191">
@@ -4057,13 +4057,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>20826</v>
+        <v>33856</v>
       </c>
       <c r="D191" t="n">
-        <v>0.6310200512211881</v>
+        <v>0.3764294790343075</v>
       </c>
       <c r="E191" t="n">
-        <v>321</v>
+        <v>366</v>
       </c>
     </row>
     <row r="192">
@@ -4076,13 +4076,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>19639</v>
+        <v>29780</v>
       </c>
       <c r="D192" t="n">
-        <v>0.5568742582297458</v>
+        <v>0.2839444545289526</v>
       </c>
       <c r="E192" t="n">
-        <v>373</v>
+        <v>423</v>
       </c>
     </row>
     <row r="193">
@@ -4095,13 +4095,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>21287</v>
+        <v>39991</v>
       </c>
       <c r="D193" t="n">
-        <v>0.6598163533012681</v>
+        <v>0.5156335088037757</v>
       </c>
       <c r="E193" t="n">
-        <v>294</v>
+        <v>246</v>
       </c>
     </row>
     <row r="194">
@@ -4114,13 +4114,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>15215</v>
+        <v>24933</v>
       </c>
       <c r="D194" t="n">
-        <v>0.280529702042601</v>
+        <v>0.1739653294608822</v>
       </c>
       <c r="E194" t="n">
-        <v>477</v>
+        <v>467</v>
       </c>
     </row>
     <row r="195">
@@ -4133,13 +4133,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>17512</v>
+        <v>29241</v>
       </c>
       <c r="D195" t="n">
-        <v>0.4240114935348867</v>
+        <v>0.2717144672354329</v>
       </c>
       <c r="E195" t="n">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="196">
@@ -4152,13 +4152,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>23720</v>
+        <v>46217</v>
       </c>
       <c r="D196" t="n">
-        <v>0.8117933662314948</v>
+        <v>0.656902341622799</v>
       </c>
       <c r="E196" t="n">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="197">
@@ -4171,13 +4171,13 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>22612</v>
+        <v>44068</v>
       </c>
       <c r="D197" t="n">
-        <v>0.74258229745768</v>
+        <v>0.6081412234525322</v>
       </c>
       <c r="E197" t="n">
-        <v>219</v>
+        <v>176</v>
       </c>
     </row>
     <row r="198">
@@ -4190,13 +4190,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>14531</v>
+        <v>25176</v>
       </c>
       <c r="D198" t="n">
-        <v>0.2378037353988381</v>
+        <v>0.1794790343074968</v>
       </c>
       <c r="E198" t="n">
-        <v>483</v>
+        <v>461</v>
       </c>
     </row>
     <row r="199">
@@ -4209,13 +4209,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>24726</v>
+        <v>53172</v>
       </c>
       <c r="D199" t="n">
-        <v>0.8746330189268536</v>
+        <v>0.8147122889816664</v>
       </c>
       <c r="E199" t="n">
-        <v>72</v>
+        <v>38</v>
       </c>
     </row>
     <row r="200">
@@ -4228,13 +4228,13 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>18452</v>
+        <v>32743</v>
       </c>
       <c r="D200" t="n">
-        <v>0.4827284652383034</v>
+        <v>0.3511753494282084</v>
       </c>
       <c r="E200" t="n">
-        <v>411</v>
+        <v>379</v>
       </c>
     </row>
     <row r="201">
@@ -4247,13 +4247,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>18536</v>
+        <v>35581</v>
       </c>
       <c r="D201" t="n">
-        <v>0.4879755137735024</v>
+        <v>0.4155699764022509</v>
       </c>
       <c r="E201" t="n">
-        <v>409</v>
+        <v>337</v>
       </c>
     </row>
     <row r="202">
@@ -4266,13 +4266,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>15289</v>
+        <v>25478</v>
       </c>
       <c r="D202" t="n">
-        <v>0.2851521019426573</v>
+        <v>0.1863314576148121</v>
       </c>
       <c r="E202" t="n">
-        <v>474</v>
+        <v>458</v>
       </c>
     </row>
     <row r="203">
@@ -4285,13 +4285,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>21419</v>
+        <v>41596</v>
       </c>
       <c r="D203" t="n">
-        <v>0.6680617152851521</v>
+        <v>0.5520511889635142</v>
       </c>
       <c r="E203" t="n">
-        <v>289</v>
+        <v>220</v>
       </c>
     </row>
     <row r="204">
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>20422</v>
+        <v>39754</v>
       </c>
       <c r="D204" t="n">
-        <v>0.6057842463614217</v>
+        <v>0.5102559448175712</v>
       </c>
       <c r="E204" t="n">
-        <v>338</v>
+        <v>253</v>
       </c>
     </row>
     <row r="205">
@@ -4323,13 +4323,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>14453</v>
+        <v>23302</v>
       </c>
       <c r="D205" t="n">
-        <v>0.2329314760447248</v>
+        <v>0.1369577055726992</v>
       </c>
       <c r="E205" t="n">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
     <row r="206">
@@ -4342,13 +4342,13 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>18549</v>
+        <v>33887</v>
       </c>
       <c r="D206" t="n">
-        <v>0.488787556999188</v>
+        <v>0.3771328734797604</v>
       </c>
       <c r="E206" t="n">
-        <v>406</v>
+        <v>364</v>
       </c>
     </row>
     <row r="207">
@@ -4361,13 +4361,13 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>17873</v>
+        <v>26182</v>
       </c>
       <c r="D207" t="n">
-        <v>0.4465613092635393</v>
+        <v>0.2023053185696134</v>
       </c>
       <c r="E207" t="n">
-        <v>430</v>
+        <v>455</v>
       </c>
     </row>
     <row r="208">
@@ -4380,13 +4380,13 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>25702</v>
+        <v>44216</v>
       </c>
       <c r="D208" t="n">
-        <v>0.9355987257167843</v>
+        <v>0.6114993646759848</v>
       </c>
       <c r="E208" t="n">
-        <v>30</v>
+        <v>171</v>
       </c>
     </row>
     <row r="209">
@@ -4399,13 +4399,13 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>21411</v>
+        <v>38201</v>
       </c>
       <c r="D209" t="n">
-        <v>0.6675619963770379</v>
+        <v>0.4750181521147214</v>
       </c>
       <c r="E209" t="n">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="210">
@@ -4418,13 +4418,13 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>21105</v>
+        <v>38126</v>
       </c>
       <c r="D210" t="n">
-        <v>0.6484477481416703</v>
+        <v>0.4733163913595934</v>
       </c>
       <c r="E210" t="n">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="211">
@@ -4437,13 +4437,13 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>23905</v>
+        <v>45830</v>
       </c>
       <c r="D211" t="n">
-        <v>0.8233493659816353</v>
+        <v>0.6481212561263388</v>
       </c>
       <c r="E211" t="n">
-        <v>130</v>
+        <v>144</v>
       </c>
     </row>
     <row r="212">
@@ -4456,13 +4456,13 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>22398</v>
+        <v>43440</v>
       </c>
       <c r="D212" t="n">
-        <v>0.7292148166656256</v>
+        <v>0.5938918133962606</v>
       </c>
       <c r="E212" t="n">
-        <v>235</v>
+        <v>187</v>
       </c>
     </row>
     <row r="213">
@@ -4475,13 +4475,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>24360</v>
+        <v>47744</v>
       </c>
       <c r="D213" t="n">
-        <v>0.8517708788806296</v>
+        <v>0.6915501905972046</v>
       </c>
       <c r="E213" t="n">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="214">
@@ -4494,13 +4494,13 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>25100</v>
+        <v>43679</v>
       </c>
       <c r="D214" t="n">
-        <v>0.8979948778811918</v>
+        <v>0.5993147576692684</v>
       </c>
       <c r="E214" t="n">
-        <v>50</v>
+        <v>183</v>
       </c>
     </row>
     <row r="215">
@@ -4513,13 +4513,13 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>25090</v>
+        <v>54827</v>
       </c>
       <c r="D215" t="n">
-        <v>0.8973702292460491</v>
+        <v>0.8522644763114903</v>
       </c>
       <c r="E215" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="216">
@@ -4532,13 +4532,13 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>24457</v>
+        <v>49962</v>
       </c>
       <c r="D216" t="n">
-        <v>0.8578299706415141</v>
+        <v>0.7418769286621891</v>
       </c>
       <c r="E216" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="217">
@@ -4551,13 +4551,13 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>25426</v>
+        <v>47353</v>
       </c>
       <c r="D217" t="n">
-        <v>0.9183584233868449</v>
+        <v>0.6826783445271374</v>
       </c>
       <c r="E217" t="n">
-        <v>37</v>
+        <v>115</v>
       </c>
     </row>
     <row r="218">
@@ -4570,13 +4570,13 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>21937</v>
+        <v>42611</v>
       </c>
       <c r="D218" t="n">
-        <v>0.7004185145855456</v>
+        <v>0.5750816845162462</v>
       </c>
       <c r="E218" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
     </row>
     <row r="219">
@@ -4589,13 +4589,13 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>11037</v>
+        <v>17266</v>
       </c>
       <c r="D219" t="n">
-        <v>0.01955150227996752</v>
+        <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="220">
@@ -4608,13 +4608,13 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>24724</v>
+        <v>54093</v>
       </c>
       <c r="D220" t="n">
-        <v>0.8745080891998251</v>
+        <v>0.8356099110546379</v>
       </c>
       <c r="E220" t="n">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="221">
@@ -4627,13 +4627,13 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>20923</v>
+        <v>32417</v>
       </c>
       <c r="D221" t="n">
-        <v>0.6370791429820726</v>
+        <v>0.3437783626792522</v>
       </c>
       <c r="E221" t="n">
-        <v>314</v>
+        <v>383</v>
       </c>
     </row>
     <row r="222">
@@ -4646,13 +4646,13 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>24793</v>
+        <v>55041</v>
       </c>
       <c r="D222" t="n">
-        <v>0.8788181647823099</v>
+        <v>0.8571201669994555</v>
       </c>
       <c r="E222" t="n">
-        <v>69</v>
+        <v>22</v>
       </c>
     </row>
     <row r="223">
@@ -4665,13 +4665,13 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>22606</v>
+        <v>40730</v>
       </c>
       <c r="D223" t="n">
-        <v>0.7422075082765944</v>
+        <v>0.5324015247776366</v>
       </c>
       <c r="E223" t="n">
-        <v>220</v>
+        <v>236</v>
       </c>
     </row>
     <row r="224">
@@ -4684,13 +4684,13 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>26093</v>
+        <v>54738</v>
       </c>
       <c r="D224" t="n">
-        <v>0.9600224873508652</v>
+        <v>0.8502450535487385</v>
       </c>
       <c r="E224" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="225">
@@ -4703,13 +4703,13 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>17002</v>
+        <v>27334</v>
       </c>
       <c r="D225" t="n">
-        <v>0.3921544131426073</v>
+        <v>0.228444363768379</v>
       </c>
       <c r="E225" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="226">
@@ -4722,13 +4722,13 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>22635</v>
+        <v>43842</v>
       </c>
       <c r="D226" t="n">
-        <v>0.7440189893185083</v>
+        <v>0.6030132510437466</v>
       </c>
       <c r="E226" t="n">
-        <v>214</v>
+        <v>181</v>
       </c>
     </row>
     <row r="227">
@@ -4741,13 +4741,13 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>21409</v>
+        <v>39987</v>
       </c>
       <c r="D227" t="n">
-        <v>0.6674370666500093</v>
+        <v>0.5155427482301688</v>
       </c>
       <c r="E227" t="n">
-        <v>291</v>
+        <v>247</v>
       </c>
     </row>
     <row r="228">
@@ -4760,13 +4760,13 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>20315</v>
+        <v>32684</v>
       </c>
       <c r="D228" t="n">
-        <v>0.5991005059653944</v>
+        <v>0.3498366309675077</v>
       </c>
       <c r="E228" t="n">
-        <v>346</v>
+        <v>380</v>
       </c>
     </row>
     <row r="229">
@@ -4779,13 +4779,13 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>21091</v>
+        <v>36977</v>
       </c>
       <c r="D229" t="n">
-        <v>0.6475732400524705</v>
+        <v>0.4472454165910328</v>
       </c>
       <c r="E229" t="n">
-        <v>303</v>
+        <v>312</v>
       </c>
     </row>
     <row r="230">
@@ -4798,13 +4798,13 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>25197</v>
+        <v>45187</v>
       </c>
       <c r="D230" t="n">
-        <v>0.9040539696420763</v>
+        <v>0.6335314939190416</v>
       </c>
       <c r="E230" t="n">
-        <v>46</v>
+        <v>157</v>
       </c>
     </row>
     <row r="231">
@@ -4817,13 +4817,13 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>18628</v>
+        <v>28509</v>
       </c>
       <c r="D231" t="n">
-        <v>0.4937222812168156</v>
+        <v>0.2551052822653839</v>
       </c>
       <c r="E231" t="n">
-        <v>403</v>
+        <v>436</v>
       </c>
     </row>
     <row r="232">
@@ -4836,13 +4836,13 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>23155</v>
+        <v>40597</v>
       </c>
       <c r="D232" t="n">
-        <v>0.7765007183459304</v>
+        <v>0.5293837357052097</v>
       </c>
       <c r="E232" t="n">
-        <v>180</v>
+        <v>239</v>
       </c>
     </row>
     <row r="233">
@@ -4855,13 +4855,13 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>22346</v>
+        <v>39860</v>
       </c>
       <c r="D233" t="n">
-        <v>0.7259666437628833</v>
+        <v>0.5126611000181521</v>
       </c>
       <c r="E233" t="n">
-        <v>239</v>
+        <v>250</v>
       </c>
     </row>
     <row r="234">
@@ -4874,13 +4874,13 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>20634</v>
+        <v>37393</v>
       </c>
       <c r="D234" t="n">
-        <v>0.6190267974264476</v>
+        <v>0.4566845162461427</v>
       </c>
       <c r="E234" t="n">
-        <v>329</v>
+        <v>300</v>
       </c>
     </row>
     <row r="235">
@@ -4893,13 +4893,13 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>21719</v>
+        <v>46230</v>
       </c>
       <c r="D235" t="n">
-        <v>0.6868011743394341</v>
+        <v>0.6571973134870213</v>
       </c>
       <c r="E235" t="n">
-        <v>272</v>
+        <v>137</v>
       </c>
     </row>
     <row r="236">
@@ -4912,13 +4912,13 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>17695</v>
+        <v>32010</v>
       </c>
       <c r="D236" t="n">
-        <v>0.4354425635579987</v>
+        <v>0.3345434743147577</v>
       </c>
       <c r="E236" t="n">
-        <v>433</v>
+        <v>389</v>
       </c>
     </row>
     <row r="237">
@@ -4931,10 +4931,10 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>25654</v>
+        <v>54413</v>
       </c>
       <c r="D237" t="n">
-        <v>0.9326004122680992</v>
+        <v>0.8428707569431839</v>
       </c>
       <c r="E237" t="n">
         <v>31</v>
@@ -4950,13 +4950,13 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>24251</v>
+        <v>51251</v>
       </c>
       <c r="D238" t="n">
-        <v>0.8449622087575739</v>
+        <v>0.7711245235069886</v>
       </c>
       <c r="E238" t="n">
-        <v>106</v>
+        <v>58</v>
       </c>
     </row>
     <row r="239">
@@ -4969,13 +4969,13 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>21770</v>
+        <v>39427</v>
       </c>
       <c r="D239" t="n">
-        <v>0.689986882378662</v>
+        <v>0.5028362679252133</v>
       </c>
       <c r="E239" t="n">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="240">
@@ -4988,13 +4988,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>23391</v>
+        <v>43338</v>
       </c>
       <c r="D240" t="n">
-        <v>0.7912424261352989</v>
+        <v>0.5915774187692866</v>
       </c>
       <c r="E240" t="n">
-        <v>164</v>
+        <v>189</v>
       </c>
     </row>
     <row r="241">
@@ -5007,13 +5007,13 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>21613</v>
+        <v>37993</v>
       </c>
       <c r="D241" t="n">
-        <v>0.6801798988069211</v>
+        <v>0.4702986022871665</v>
       </c>
       <c r="E241" t="n">
-        <v>280</v>
+        <v>291</v>
       </c>
     </row>
     <row r="242">
@@ -5026,13 +5026,13 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>23078</v>
+        <v>39451</v>
       </c>
       <c r="D242" t="n">
-        <v>0.7716909238553313</v>
+        <v>0.5033808313668542</v>
       </c>
       <c r="E242" t="n">
-        <v>184</v>
+        <v>259</v>
       </c>
     </row>
     <row r="243">
@@ -5045,13 +5045,13 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>19091</v>
+        <v>32350</v>
       </c>
       <c r="D243" t="n">
-        <v>0.5226435130239241</v>
+        <v>0.3422581230713378</v>
       </c>
       <c r="E243" t="n">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="244">
@@ -5064,13 +5064,13 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>19217</v>
+        <v>32153</v>
       </c>
       <c r="D244" t="n">
-        <v>0.5305140858267224</v>
+        <v>0.3377881648212017</v>
       </c>
       <c r="E244" t="n">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="245">
@@ -5083,13 +5083,13 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>18799</v>
+        <v>28372</v>
       </c>
       <c r="D245" t="n">
-        <v>0.5044037728777563</v>
+        <v>0.2519967326193501</v>
       </c>
       <c r="E245" t="n">
-        <v>399</v>
+        <v>439</v>
       </c>
     </row>
     <row r="246">
@@ -5102,13 +5102,13 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>13964</v>
+        <v>21390</v>
       </c>
       <c r="D246" t="n">
-        <v>0.2023861577862452</v>
+        <v>0.09357415138863677</v>
       </c>
       <c r="E246" t="n">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="247">
@@ -5121,13 +5121,13 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>23447</v>
+        <v>46134</v>
       </c>
       <c r="D247" t="n">
-        <v>0.7947404584920982</v>
+        <v>0.6550190597204575</v>
       </c>
       <c r="E247" t="n">
-        <v>161</v>
+        <v>140</v>
       </c>
     </row>
     <row r="248">
@@ -5140,10 +5140,10 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>15024</v>
+        <v>23205</v>
       </c>
       <c r="D248" t="n">
-        <v>0.2685989131113748</v>
+        <v>0.1347567616627337</v>
       </c>
       <c r="E248" t="n">
         <v>479</v>
@@ -5159,13 +5159,13 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>23008</v>
+        <v>38929</v>
       </c>
       <c r="D249" t="n">
-        <v>0.7673183834093322</v>
+        <v>0.4915365765111636</v>
       </c>
       <c r="E249" t="n">
-        <v>193</v>
+        <v>272</v>
       </c>
     </row>
     <row r="250">
@@ -5178,13 +5178,13 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>23176</v>
+        <v>49494</v>
       </c>
       <c r="D250" t="n">
-        <v>0.7778124804797302</v>
+        <v>0.7312579415501906</v>
       </c>
       <c r="E250" t="n">
-        <v>178</v>
+        <v>84</v>
       </c>
     </row>
     <row r="251">
@@ -5197,13 +5197,13 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>21873</v>
+        <v>45969</v>
       </c>
       <c r="D251" t="n">
-        <v>0.6964207633206322</v>
+        <v>0.6512751860591759</v>
       </c>
       <c r="E251" t="n">
-        <v>265</v>
+        <v>143</v>
       </c>
     </row>
     <row r="252">
@@ -5216,13 +5216,13 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>19699</v>
+        <v>35814</v>
       </c>
       <c r="D252" t="n">
-        <v>0.5606221500406021</v>
+        <v>0.4208567798148484</v>
       </c>
       <c r="E252" t="n">
-        <v>368</v>
+        <v>332</v>
       </c>
     </row>
     <row r="253">
@@ -5235,13 +5235,13 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>24173</v>
+        <v>47602</v>
       </c>
       <c r="D253" t="n">
-        <v>0.8400899494034606</v>
+        <v>0.6883281902341623</v>
       </c>
       <c r="E253" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="254">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>25260</v>
+        <v>55408</v>
       </c>
       <c r="D254" t="n">
-        <v>0.9079892560434756</v>
+        <v>0.8654474496278817</v>
       </c>
       <c r="E254" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="255">
@@ -5273,13 +5273,13 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>17711</v>
+        <v>20665</v>
       </c>
       <c r="D255" t="n">
-        <v>0.436442001374227</v>
+        <v>0.07712379742239971</v>
       </c>
       <c r="E255" t="n">
-        <v>432</v>
+        <v>491</v>
       </c>
     </row>
     <row r="256">
@@ -5292,13 +5292,13 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>19661</v>
+        <v>30350</v>
       </c>
       <c r="D256" t="n">
-        <v>0.5582484852270598</v>
+        <v>0.2968778362679252</v>
       </c>
       <c r="E256" t="n">
-        <v>372</v>
+        <v>414</v>
       </c>
     </row>
     <row r="257">
@@ -5311,13 +5311,13 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>25858</v>
+        <v>56882</v>
       </c>
       <c r="D257" t="n">
-        <v>0.9453432444250109</v>
+        <v>0.8988927210019967</v>
       </c>
       <c r="E257" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="258">
@@ -5330,13 +5330,13 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>15473</v>
+        <v>27581</v>
       </c>
       <c r="D258" t="n">
-        <v>0.2966456368292835</v>
+        <v>0.2340488291886005</v>
       </c>
       <c r="E258" t="n">
-        <v>471</v>
+        <v>447</v>
       </c>
     </row>
     <row r="259">
@@ -5349,13 +5349,13 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>23443</v>
+        <v>41969</v>
       </c>
       <c r="D259" t="n">
-        <v>0.7944905990380411</v>
+        <v>0.5605146124523507</v>
       </c>
       <c r="E259" t="n">
-        <v>162</v>
+        <v>212</v>
       </c>
     </row>
     <row r="260">
@@ -5368,13 +5368,13 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>22579</v>
+        <v>41919</v>
       </c>
       <c r="D260" t="n">
-        <v>0.7405209569617091</v>
+        <v>0.5593801052822653</v>
       </c>
       <c r="E260" t="n">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="261">
@@ -5387,13 +5387,13 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>18090</v>
+        <v>29520</v>
       </c>
       <c r="D261" t="n">
-        <v>0.4601161846461366</v>
+        <v>0.278045017244509</v>
       </c>
       <c r="E261" t="n">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="262">
@@ -5406,13 +5406,13 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>25591</v>
+        <v>53834</v>
       </c>
       <c r="D262" t="n">
-        <v>0.9286651258667</v>
+        <v>0.829733163913596</v>
       </c>
       <c r="E262" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="263">
@@ -5425,13 +5425,13 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>21258</v>
+        <v>37940</v>
       </c>
       <c r="D263" t="n">
-        <v>0.6580048722593541</v>
+        <v>0.469096024686876</v>
       </c>
       <c r="E263" t="n">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="264">
@@ -5444,13 +5444,13 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>24856</v>
+        <v>51654</v>
       </c>
       <c r="D264" t="n">
-        <v>0.8827534511837092</v>
+        <v>0.7802686512978761</v>
       </c>
       <c r="E264" t="n">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="265">
@@ -5463,13 +5463,13 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>20932</v>
+        <v>38494</v>
       </c>
       <c r="D265" t="n">
-        <v>0.637641326753701</v>
+        <v>0.4816663641314213</v>
       </c>
       <c r="E265" t="n">
-        <v>312</v>
+        <v>281</v>
       </c>
     </row>
     <row r="266">
@@ -5482,13 +5482,13 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>21676</v>
+        <v>43790</v>
       </c>
       <c r="D266" t="n">
-        <v>0.6841151852083203</v>
+        <v>0.6018333635868579</v>
       </c>
       <c r="E266" t="n">
-        <v>276</v>
+        <v>182</v>
       </c>
     </row>
     <row r="267">
@@ -5501,13 +5501,13 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>22420</v>
+        <v>39919</v>
       </c>
       <c r="D267" t="n">
-        <v>0.7305890436629396</v>
+        <v>0.5139998184788528</v>
       </c>
       <c r="E267" t="n">
-        <v>233</v>
+        <v>249</v>
       </c>
     </row>
     <row r="268">
@@ -5520,13 +5520,13 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>19320</v>
+        <v>35156</v>
       </c>
       <c r="D268" t="n">
-        <v>0.5369479667686926</v>
+        <v>0.4059266654565257</v>
       </c>
       <c r="E268" t="n">
-        <v>385</v>
+        <v>343</v>
       </c>
     </row>
     <row r="269">
@@ -5539,13 +5539,13 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>18548</v>
+        <v>31400</v>
       </c>
       <c r="D269" t="n">
-        <v>0.4887250921356737</v>
+        <v>0.3207024868397168</v>
       </c>
       <c r="E269" t="n">
-        <v>408</v>
+        <v>393</v>
       </c>
     </row>
     <row r="270">
@@ -5558,13 +5558,13 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>16772</v>
+        <v>30252</v>
       </c>
       <c r="D270" t="n">
-        <v>0.3777874945343244</v>
+        <v>0.294654202214558</v>
       </c>
       <c r="E270" t="n">
-        <v>455</v>
+        <v>415</v>
       </c>
     </row>
     <row r="271">
@@ -5577,13 +5577,13 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>24465</v>
+        <v>51707</v>
       </c>
       <c r="D271" t="n">
-        <v>0.8583296895496283</v>
+        <v>0.7814712288981667</v>
       </c>
       <c r="E271" t="n">
-        <v>89</v>
+        <v>52</v>
       </c>
     </row>
     <row r="272">
@@ -5596,13 +5596,13 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>17029</v>
+        <v>23460</v>
       </c>
       <c r="D272" t="n">
-        <v>0.3938409644574927</v>
+        <v>0.1405427482301688</v>
       </c>
       <c r="E272" t="n">
-        <v>447</v>
+        <v>476</v>
       </c>
     </row>
     <row r="273">
@@ -5615,13 +5615,13 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>17639</v>
+        <v>30966</v>
       </c>
       <c r="D273" t="n">
-        <v>0.4319445312011993</v>
+        <v>0.3108549646033763</v>
       </c>
       <c r="E273" t="n">
-        <v>434</v>
+        <v>402</v>
       </c>
     </row>
     <row r="274">
@@ -5634,13 +5634,13 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>22691</v>
+        <v>44078</v>
       </c>
       <c r="D274" t="n">
-        <v>0.7475170216753076</v>
+        <v>0.6083681248865492</v>
       </c>
       <c r="E274" t="n">
-        <v>209</v>
+        <v>175</v>
       </c>
     </row>
     <row r="275">
@@ -5653,13 +5653,13 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>20889</v>
+        <v>31759</v>
       </c>
       <c r="D275" t="n">
-        <v>0.6349553376225873</v>
+        <v>0.3288482483209294</v>
       </c>
       <c r="E275" t="n">
-        <v>317</v>
+        <v>392</v>
       </c>
     </row>
     <row r="276">
@@ -5672,13 +5672,13 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>23137</v>
+        <v>46289</v>
       </c>
       <c r="D276" t="n">
-        <v>0.7753763508026735</v>
+        <v>0.6585360319477219</v>
       </c>
       <c r="E276" t="n">
-        <v>182</v>
+        <v>136</v>
       </c>
     </row>
     <row r="277">
@@ -5691,13 +5691,13 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>18297</v>
+        <v>33908</v>
       </c>
       <c r="D277" t="n">
-        <v>0.4730464113935911</v>
+        <v>0.3776093664911962</v>
       </c>
       <c r="E277" t="n">
-        <v>416</v>
+        <v>363</v>
       </c>
     </row>
     <row r="278">
@@ -5710,13 +5710,13 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>23573</v>
+        <v>46225</v>
       </c>
       <c r="D278" t="n">
-        <v>0.8026110312948966</v>
+        <v>0.6570838627700127</v>
       </c>
       <c r="E278" t="n">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="279">
@@ -5729,13 +5729,13 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>25110</v>
+        <v>51525</v>
       </c>
       <c r="D279" t="n">
-        <v>0.8986195265163346</v>
+        <v>0.7773416227990561</v>
       </c>
       <c r="E279" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="280">
@@ -5748,13 +5748,13 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>23579</v>
+        <v>50720</v>
       </c>
       <c r="D280" t="n">
-        <v>0.8029858204759822</v>
+        <v>0.7590760573606825</v>
       </c>
       <c r="E280" t="n">
-        <v>153</v>
+        <v>66</v>
       </c>
     </row>
     <row r="281">
@@ -5767,13 +5767,13 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>24538</v>
+        <v>52500</v>
       </c>
       <c r="D281" t="n">
-        <v>0.8628896245861702</v>
+        <v>0.7994645126157197</v>
       </c>
       <c r="E281" t="n">
-        <v>84</v>
+        <v>43</v>
       </c>
     </row>
     <row r="282">
@@ -5786,13 +5786,13 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>22759</v>
+        <v>42405</v>
       </c>
       <c r="D282" t="n">
-        <v>0.7517646323942783</v>
+        <v>0.5704075149754947</v>
       </c>
       <c r="E282" t="n">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="283">
@@ -5805,13 +5805,13 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>23376</v>
+        <v>47118</v>
       </c>
       <c r="D283" t="n">
-        <v>0.7903054531825848</v>
+        <v>0.6773461608277365</v>
       </c>
       <c r="E283" t="n">
-        <v>165</v>
+        <v>121</v>
       </c>
     </row>
     <row r="284">
@@ -5824,13 +5824,13 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>24520</v>
+        <v>50923</v>
       </c>
       <c r="D284" t="n">
-        <v>0.8617652570429134</v>
+        <v>0.7636821564712289</v>
       </c>
       <c r="E284" t="n">
-        <v>87</v>
+        <v>62</v>
       </c>
     </row>
     <row r="285">
@@ -5843,13 +5843,13 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>20031</v>
+        <v>31332</v>
       </c>
       <c r="D285" t="n">
-        <v>0.5813604847273409</v>
+        <v>0.3191595570884008</v>
       </c>
       <c r="E285" t="n">
-        <v>355</v>
+        <v>394</v>
       </c>
     </row>
     <row r="286">
@@ -5862,13 +5862,13 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>17774</v>
+        <v>30251</v>
       </c>
       <c r="D286" t="n">
-        <v>0.4403772877756262</v>
+        <v>0.2946315120711563</v>
       </c>
       <c r="E286" t="n">
-        <v>431</v>
+        <v>416</v>
       </c>
     </row>
     <row r="287">
@@ -5881,13 +5881,13 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>23744</v>
+        <v>47294</v>
       </c>
       <c r="D287" t="n">
-        <v>0.8132925229558373</v>
+        <v>0.6813396260664367</v>
       </c>
       <c r="E287" t="n">
-        <v>143</v>
+        <v>118</v>
       </c>
     </row>
     <row r="288">
@@ -5900,13 +5900,13 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>19597</v>
+        <v>32875</v>
       </c>
       <c r="D288" t="n">
-        <v>0.5542507339621463</v>
+        <v>0.3541704483572336</v>
       </c>
       <c r="E288" t="n">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="289">
@@ -5919,13 +5919,13 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>24881</v>
+        <v>49132</v>
       </c>
       <c r="D289" t="n">
-        <v>0.884315072771566</v>
+        <v>0.723044109638773</v>
       </c>
       <c r="E289" t="n">
-        <v>64</v>
+        <v>89</v>
       </c>
     </row>
     <row r="290">
@@ -5938,13 +5938,13 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>23027</v>
+        <v>45087</v>
       </c>
       <c r="D290" t="n">
-        <v>0.7685052158161034</v>
+        <v>0.6312624795788709</v>
       </c>
       <c r="E290" t="n">
-        <v>189</v>
+        <v>160</v>
       </c>
     </row>
     <row r="291">
@@ -5957,10 +5957,10 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>18194</v>
+        <v>29952</v>
       </c>
       <c r="D291" t="n">
-        <v>0.466612530451621</v>
+        <v>0.2878471591940461</v>
       </c>
       <c r="E291" t="n">
         <v>421</v>
@@ -5976,13 +5976,13 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>22658</v>
+        <v>40171</v>
       </c>
       <c r="D292" t="n">
-        <v>0.7454556811793366</v>
+        <v>0.5197177346160827</v>
       </c>
       <c r="E292" t="n">
-        <v>212</v>
+        <v>243</v>
       </c>
     </row>
     <row r="293">
@@ -5995,13 +5995,13 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>23864</v>
+        <v>49990</v>
       </c>
       <c r="D293" t="n">
-        <v>0.8207883065775501</v>
+        <v>0.7425122526774369</v>
       </c>
       <c r="E293" t="n">
-        <v>133</v>
+        <v>79</v>
       </c>
     </row>
     <row r="294">
@@ -6014,13 +6014,13 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>24449</v>
+        <v>45664</v>
       </c>
       <c r="D294" t="n">
-        <v>0.8573302517333999</v>
+        <v>0.6443546923216554</v>
       </c>
       <c r="E294" t="n">
-        <v>94</v>
+        <v>148</v>
       </c>
     </row>
     <row r="295">
@@ -6033,13 +6033,13 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>20363</v>
+        <v>29230</v>
       </c>
       <c r="D295" t="n">
-        <v>0.6020988194140796</v>
+        <v>0.2714648756580141</v>
       </c>
       <c r="E295" t="n">
-        <v>343</v>
+        <v>432</v>
       </c>
     </row>
     <row r="296">
@@ -6052,13 +6052,13 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>26457</v>
+        <v>59345</v>
       </c>
       <c r="D296" t="n">
-        <v>0.9827596976700606</v>
+        <v>0.9547785442003993</v>
       </c>
       <c r="E296" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="297">
@@ -6071,13 +6071,13 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>21727</v>
+        <v>31760</v>
       </c>
       <c r="D297" t="n">
-        <v>0.6873008932475483</v>
+        <v>0.3288709384643311</v>
       </c>
       <c r="E297" t="n">
-        <v>271</v>
+        <v>391</v>
       </c>
     </row>
     <row r="298">
@@ -6090,13 +6090,13 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>14193</v>
+        <v>19662</v>
       </c>
       <c r="D298" t="n">
-        <v>0.2166906115310138</v>
+        <v>0.05436558359048829</v>
       </c>
       <c r="E298" t="n">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="299">
@@ -6109,13 +6109,13 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>17145</v>
+        <v>25401</v>
       </c>
       <c r="D299" t="n">
-        <v>0.4010868886251484</v>
+        <v>0.1845843165728807</v>
       </c>
       <c r="E299" t="n">
-        <v>444</v>
+        <v>459</v>
       </c>
     </row>
     <row r="300">
@@ -6128,13 +6128,13 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>16277</v>
+        <v>28025</v>
       </c>
       <c r="D300" t="n">
-        <v>0.3468673870947592</v>
+        <v>0.2441232528589581</v>
       </c>
       <c r="E300" t="n">
-        <v>464</v>
+        <v>442</v>
       </c>
     </row>
     <row r="301">
@@ -6147,13 +6147,13 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>20775</v>
+        <v>37127</v>
       </c>
       <c r="D301" t="n">
-        <v>0.6278343431819602</v>
+        <v>0.4506489381012888</v>
       </c>
       <c r="E301" t="n">
-        <v>323</v>
+        <v>307</v>
       </c>
     </row>
     <row r="302">
@@ -6166,13 +6166,13 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>21439</v>
+        <v>32205</v>
       </c>
       <c r="D302" t="n">
-        <v>0.6693110125554376</v>
+        <v>0.3389680522780904</v>
       </c>
       <c r="E302" t="n">
-        <v>288</v>
+        <v>386</v>
       </c>
     </row>
     <row r="303">
@@ -6185,13 +6185,13 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>22438</v>
+        <v>46436</v>
       </c>
       <c r="D303" t="n">
-        <v>0.7317134112061965</v>
+        <v>0.6618714830277728</v>
       </c>
       <c r="E303" t="n">
-        <v>230</v>
+        <v>134</v>
       </c>
     </row>
     <row r="304">
@@ -6204,13 +6204,13 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>21135</v>
+        <v>37746</v>
       </c>
       <c r="D304" t="n">
-        <v>0.6503216940470985</v>
+        <v>0.464694136866945</v>
       </c>
       <c r="E304" t="n">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="305">
@@ -6223,13 +6223,13 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>23225</v>
+        <v>47546</v>
       </c>
       <c r="D305" t="n">
-        <v>0.7808732587919296</v>
+        <v>0.6870575422036668</v>
       </c>
       <c r="E305" t="n">
-        <v>175</v>
+        <v>111</v>
       </c>
     </row>
     <row r="306">
@@ -6242,13 +6242,13 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>22425</v>
+        <v>40666</v>
       </c>
       <c r="D306" t="n">
-        <v>0.730901367980511</v>
+        <v>0.5309493555999274</v>
       </c>
       <c r="E306" t="n">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="307">
@@ -6261,13 +6261,13 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>17558</v>
+        <v>27757</v>
       </c>
       <c r="D307" t="n">
-        <v>0.4268848772565432</v>
+        <v>0.2380422944273008</v>
       </c>
       <c r="E307" t="n">
-        <v>435</v>
+        <v>444</v>
       </c>
     </row>
     <row r="308">
@@ -6280,13 +6280,13 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>19156</v>
+        <v>35792</v>
       </c>
       <c r="D308" t="n">
-        <v>0.5267037291523518</v>
+        <v>0.4203575966600109</v>
       </c>
       <c r="E308" t="n">
-        <v>394</v>
+        <v>333</v>
       </c>
     </row>
     <row r="309">
@@ -6299,13 +6299,13 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>18214</v>
+        <v>29442</v>
       </c>
       <c r="D309" t="n">
-        <v>0.4678618277219064</v>
+        <v>0.2762751860591759</v>
       </c>
       <c r="E309" t="n">
-        <v>420</v>
+        <v>428</v>
       </c>
     </row>
     <row r="310">
@@ -6318,13 +6318,13 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>19401</v>
+        <v>32962</v>
       </c>
       <c r="D310" t="n">
-        <v>0.5420076207133487</v>
+        <v>0.3561444908331821</v>
       </c>
       <c r="E310" t="n">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="311">
@@ -6337,13 +6337,13 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>22725</v>
+        <v>41963</v>
       </c>
       <c r="D311" t="n">
-        <v>0.749640827034793</v>
+        <v>0.5603784715919404</v>
       </c>
       <c r="E311" t="n">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="312">
@@ -6356,13 +6356,13 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>22869</v>
+        <v>46846</v>
       </c>
       <c r="D312" t="n">
-        <v>0.7586357673808483</v>
+        <v>0.6711744418224723</v>
       </c>
       <c r="E312" t="n">
-        <v>199</v>
+        <v>125</v>
       </c>
     </row>
     <row r="313">
@@ -6375,13 +6375,13 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>16949</v>
+        <v>28106</v>
       </c>
       <c r="D313" t="n">
-        <v>0.3888437753763508</v>
+        <v>0.2459611544744963</v>
       </c>
       <c r="E313" t="n">
-        <v>451</v>
+        <v>441</v>
       </c>
     </row>
     <row r="314">
@@ -6394,13 +6394,13 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>17928</v>
+        <v>30813</v>
       </c>
       <c r="D314" t="n">
-        <v>0.4499968767568243</v>
+        <v>0.3073833726629152</v>
       </c>
       <c r="E314" t="n">
-        <v>428</v>
+        <v>406</v>
       </c>
     </row>
     <row r="315">
@@ -6413,13 +6413,13 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>20720</v>
+        <v>39962</v>
       </c>
       <c r="D315" t="n">
-        <v>0.6243987756886751</v>
+        <v>0.5149754946451262</v>
       </c>
       <c r="E315" t="n">
-        <v>326</v>
+        <v>248</v>
       </c>
     </row>
     <row r="316">
@@ -6432,13 +6432,13 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>17430</v>
+        <v>25223</v>
       </c>
       <c r="D316" t="n">
-        <v>0.4188893747267162</v>
+        <v>0.180545471047377</v>
       </c>
       <c r="E316" t="n">
-        <v>438</v>
+        <v>460</v>
       </c>
     </row>
     <row r="317">
@@ -6451,13 +6451,13 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>24121</v>
+        <v>49665</v>
       </c>
       <c r="D317" t="n">
-        <v>0.8368417765007183</v>
+        <v>0.7351379560718824</v>
       </c>
       <c r="E317" t="n">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="318">
@@ -6470,13 +6470,13 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>25019</v>
+        <v>52429</v>
       </c>
       <c r="D318" t="n">
-        <v>0.8929352239365357</v>
+        <v>0.7978535124341986</v>
       </c>
       <c r="E318" t="n">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="319">
@@ -6489,13 +6489,13 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>19168</v>
+        <v>33768</v>
       </c>
       <c r="D319" t="n">
-        <v>0.5274533075145231</v>
+        <v>0.3744327464149573</v>
       </c>
       <c r="E319" t="n">
-        <v>392</v>
+        <v>369</v>
       </c>
     </row>
     <row r="320">
@@ -6508,13 +6508,13 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>19261</v>
+        <v>30191</v>
       </c>
       <c r="D320" t="n">
-        <v>0.5332625398213505</v>
+        <v>0.2932701034670539</v>
       </c>
       <c r="E320" t="n">
-        <v>388</v>
+        <v>418</v>
       </c>
     </row>
     <row r="321">
@@ -6527,13 +6527,13 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>16701</v>
+        <v>21902</v>
       </c>
       <c r="D321" t="n">
-        <v>0.3733524892248111</v>
+        <v>0.1051915048103104</v>
       </c>
       <c r="E321" t="n">
-        <v>457</v>
+        <v>486</v>
       </c>
     </row>
     <row r="322">
@@ -6546,13 +6546,13 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>17373</v>
+        <v>27395</v>
       </c>
       <c r="D322" t="n">
-        <v>0.4153288775064026</v>
+        <v>0.2298284625158831</v>
       </c>
       <c r="E322" t="n">
-        <v>439</v>
+        <v>448</v>
       </c>
     </row>
     <row r="323">
@@ -6565,13 +6565,13 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>23705</v>
+        <v>42314</v>
       </c>
       <c r="D323" t="n">
-        <v>0.8108563932787807</v>
+        <v>0.5683427119259393</v>
       </c>
       <c r="E323" t="n">
-        <v>146</v>
+        <v>203</v>
       </c>
     </row>
     <row r="324">
@@ -6584,13 +6584,13 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>22088</v>
+        <v>36441</v>
       </c>
       <c r="D324" t="n">
-        <v>0.7098507089762008</v>
+        <v>0.4350834997277183</v>
       </c>
       <c r="E324" t="n">
-        <v>249</v>
+        <v>319</v>
       </c>
     </row>
     <row r="325">
@@ -6603,13 +6603,13 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>20868</v>
+        <v>33784</v>
       </c>
       <c r="D325" t="n">
-        <v>0.6336435754887876</v>
+        <v>0.3747957887093846</v>
       </c>
       <c r="E325" t="n">
-        <v>318</v>
+        <v>368</v>
       </c>
     </row>
     <row r="326">
@@ -6622,13 +6622,13 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>25005</v>
+        <v>54932</v>
       </c>
       <c r="D326" t="n">
-        <v>0.8920607158473359</v>
+        <v>0.8546469413686695</v>
       </c>
       <c r="E326" t="n">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="327">
@@ -6641,13 +6641,13 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>20844</v>
+        <v>37164</v>
       </c>
       <c r="D327" t="n">
-        <v>0.632144418764445</v>
+        <v>0.4514884734071519</v>
       </c>
       <c r="E327" t="n">
-        <v>319</v>
+        <v>306</v>
       </c>
     </row>
     <row r="328">
@@ -6660,13 +6660,13 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>21478</v>
+        <v>41383</v>
       </c>
       <c r="D328" t="n">
-        <v>0.6717471422324942</v>
+        <v>0.5472181884189508</v>
       </c>
       <c r="E328" t="n">
-        <v>285</v>
+        <v>226</v>
       </c>
     </row>
     <row r="329">
@@ -6679,13 +6679,13 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>22394</v>
+        <v>43288</v>
       </c>
       <c r="D329" t="n">
-        <v>0.7289649572115685</v>
+        <v>0.5904429115992013</v>
       </c>
       <c r="E329" t="n">
-        <v>236</v>
+        <v>191</v>
       </c>
     </row>
     <row r="330">
@@ -6698,13 +6698,13 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>21068</v>
+        <v>37077</v>
       </c>
       <c r="D330" t="n">
-        <v>0.6461365481916422</v>
+        <v>0.4495144309312035</v>
       </c>
       <c r="E330" t="n">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="331">
@@ -6717,13 +6717,13 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>20947</v>
+        <v>32308</v>
       </c>
       <c r="D331" t="n">
-        <v>0.6385782997064151</v>
+        <v>0.3413051370484662</v>
       </c>
       <c r="E331" t="n">
-        <v>310</v>
+        <v>385</v>
       </c>
     </row>
     <row r="332">
@@ -6736,13 +6736,13 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>24009</v>
+        <v>48247</v>
       </c>
       <c r="D332" t="n">
-        <v>0.8298457117871197</v>
+        <v>0.7029633327282628</v>
       </c>
       <c r="E332" t="n">
-        <v>123</v>
+        <v>100</v>
       </c>
     </row>
     <row r="333">
@@ -6755,13 +6755,13 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>25868</v>
+        <v>50606</v>
       </c>
       <c r="D333" t="n">
-        <v>0.9459678930601536</v>
+        <v>0.756489381012888</v>
       </c>
       <c r="E333" t="n">
-        <v>24</v>
+        <v>69</v>
       </c>
     </row>
     <row r="334">
@@ -6774,13 +6774,13 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>18490</v>
+        <v>29496</v>
       </c>
       <c r="D334" t="n">
-        <v>0.4851021300518458</v>
+        <v>0.277500453802868</v>
       </c>
       <c r="E334" t="n">
-        <v>410</v>
+        <v>427</v>
       </c>
     </row>
     <row r="335">
@@ -6793,13 +6793,13 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>22624</v>
+        <v>41889</v>
       </c>
       <c r="D335" t="n">
-        <v>0.7433318758198514</v>
+        <v>0.5586994009802142</v>
       </c>
       <c r="E335" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="336">
@@ -6812,13 +6812,13 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>24636</v>
+        <v>41220</v>
       </c>
       <c r="D336" t="n">
-        <v>0.8690111812105691</v>
+        <v>0.5435196950444727</v>
       </c>
       <c r="E336" t="n">
-        <v>76</v>
+        <v>227</v>
       </c>
     </row>
     <row r="337">
@@ -6831,13 +6831,13 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>22057</v>
+        <v>39572</v>
       </c>
       <c r="D337" t="n">
-        <v>0.7079142982072584</v>
+        <v>0.5061263387184607</v>
       </c>
       <c r="E337" t="n">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="338">
@@ -6850,13 +6850,13 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>16504</v>
+        <v>28952</v>
       </c>
       <c r="D338" t="n">
-        <v>0.3610469111124992</v>
+        <v>0.2651570157923398</v>
       </c>
       <c r="E338" t="n">
-        <v>461</v>
+        <v>435</v>
       </c>
     </row>
     <row r="339">
@@ -6869,13 +6869,13 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>21104</v>
+        <v>38750</v>
       </c>
       <c r="D339" t="n">
-        <v>0.648385283278156</v>
+        <v>0.4874750408422581</v>
       </c>
       <c r="E339" t="n">
-        <v>301</v>
+        <v>275</v>
       </c>
     </row>
     <row r="340">
@@ -6888,13 +6888,13 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>18257</v>
+        <v>28446</v>
       </c>
       <c r="D340" t="n">
-        <v>0.4705478168530202</v>
+        <v>0.2536758032310764</v>
       </c>
       <c r="E340" t="n">
-        <v>419</v>
+        <v>437</v>
       </c>
     </row>
     <row r="341">
@@ -6907,13 +6907,13 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>21832</v>
+        <v>31208</v>
       </c>
       <c r="D341" t="n">
-        <v>0.6938597039165469</v>
+        <v>0.3163459793065892</v>
       </c>
       <c r="E341" t="n">
-        <v>267</v>
+        <v>397</v>
       </c>
     </row>
     <row r="342">
@@ -6926,13 +6926,13 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>26390</v>
+        <v>59737</v>
       </c>
       <c r="D342" t="n">
-        <v>0.9785745518146043</v>
+        <v>0.9636730804138682</v>
       </c>
       <c r="E342" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="343">
@@ -6945,13 +6945,13 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>24244</v>
+        <v>39194</v>
       </c>
       <c r="D343" t="n">
-        <v>0.844524954712974</v>
+        <v>0.4975494645126157</v>
       </c>
       <c r="E343" t="n">
-        <v>107</v>
+        <v>267</v>
       </c>
     </row>
     <row r="344">
@@ -6964,13 +6964,13 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>15064</v>
+        <v>25926</v>
       </c>
       <c r="D344" t="n">
-        <v>0.2710975076519458</v>
+        <v>0.1964966418587765</v>
       </c>
       <c r="E344" t="n">
-        <v>478</v>
+        <v>457</v>
       </c>
     </row>
     <row r="345">
@@ -6983,13 +6983,13 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>20761</v>
+        <v>32501</v>
       </c>
       <c r="D345" t="n">
-        <v>0.6269598350927603</v>
+        <v>0.3456843347249954</v>
       </c>
       <c r="E345" t="n">
-        <v>324</v>
+        <v>382</v>
       </c>
     </row>
     <row r="346">
@@ -7002,13 +7002,13 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>22188</v>
+        <v>36571</v>
       </c>
       <c r="D346" t="n">
-        <v>0.7160971953276282</v>
+        <v>0.4380332183699401</v>
       </c>
       <c r="E346" t="n">
-        <v>247</v>
+        <v>317</v>
       </c>
     </row>
     <row r="347">
@@ -7021,13 +7021,13 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>18891</v>
+        <v>34654</v>
       </c>
       <c r="D347" t="n">
-        <v>0.5101505403210694</v>
+        <v>0.3945362134688691</v>
       </c>
       <c r="E347" t="n">
-        <v>397</v>
+        <v>354</v>
       </c>
     </row>
     <row r="348">
@@ -7040,13 +7040,13 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>17048</v>
+        <v>25029</v>
       </c>
       <c r="D348" t="n">
-        <v>0.3950277968642639</v>
+        <v>0.176143583227446</v>
       </c>
       <c r="E348" t="n">
-        <v>446</v>
+        <v>464</v>
       </c>
     </row>
     <row r="349">
@@ -7059,13 +7059,13 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>25934</v>
+        <v>54569</v>
       </c>
       <c r="D349" t="n">
-        <v>0.9500905740520957</v>
+        <v>0.8464104193138501</v>
       </c>
       <c r="E349" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="350">
@@ -7078,13 +7078,13 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>25332</v>
+        <v>47484</v>
       </c>
       <c r="D350" t="n">
-        <v>0.9124867262165032</v>
+        <v>0.6856507533127609</v>
       </c>
       <c r="E350" t="n">
-        <v>41</v>
+        <v>113</v>
       </c>
     </row>
     <row r="351">
@@ -7097,13 +7097,13 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>21545</v>
+        <v>42021</v>
       </c>
       <c r="D351" t="n">
-        <v>0.6759322880879505</v>
+        <v>0.5616944999092395</v>
       </c>
       <c r="E351" t="n">
-        <v>283</v>
+        <v>208</v>
       </c>
     </row>
     <row r="352">
@@ -7116,13 +7116,13 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>25758</v>
+        <v>55062</v>
       </c>
       <c r="D352" t="n">
-        <v>0.9390967580735836</v>
+        <v>0.8575966600108913</v>
       </c>
       <c r="E352" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="353">
@@ -7135,13 +7135,13 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>26118</v>
+        <v>52696</v>
       </c>
       <c r="D353" t="n">
-        <v>0.9615841089387219</v>
+        <v>0.8039117807224542</v>
       </c>
       <c r="E353" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="354">
@@ -7154,13 +7154,13 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>18548</v>
+        <v>32525</v>
       </c>
       <c r="D354" t="n">
-        <v>0.4887250921356737</v>
+        <v>0.3462288981666364</v>
       </c>
       <c r="E354" t="n">
-        <v>407</v>
+        <v>381</v>
       </c>
     </row>
     <row r="355">
@@ -7173,13 +7173,13 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>22207</v>
+        <v>40859</v>
       </c>
       <c r="D355" t="n">
-        <v>0.7172840277343994</v>
+        <v>0.5353285532764567</v>
       </c>
       <c r="E355" t="n">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="356">
@@ -7192,13 +7192,13 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>23033</v>
+        <v>42491</v>
       </c>
       <c r="D356" t="n">
-        <v>0.7688800049971891</v>
+        <v>0.5723588673080414</v>
       </c>
       <c r="E356" t="n">
-        <v>188</v>
+        <v>201</v>
       </c>
     </row>
     <row r="357">
@@ -7211,13 +7211,13 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>19678</v>
+        <v>35854</v>
       </c>
       <c r="D357" t="n">
-        <v>0.5593103879068024</v>
+        <v>0.4217643855509167</v>
       </c>
       <c r="E357" t="n">
-        <v>371</v>
+        <v>331</v>
       </c>
     </row>
     <row r="358">
@@ -7230,13 +7230,13 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>17363</v>
+        <v>30761</v>
       </c>
       <c r="D358" t="n">
-        <v>0.4147042288712599</v>
+        <v>0.3062034852060265</v>
       </c>
       <c r="E358" t="n">
-        <v>440</v>
+        <v>408</v>
       </c>
     </row>
     <row r="359">
@@ -7249,13 +7249,13 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>19689</v>
+        <v>35051</v>
       </c>
       <c r="D359" t="n">
-        <v>0.5599975014054595</v>
+        <v>0.4035442003993465</v>
       </c>
       <c r="E359" t="n">
-        <v>370</v>
+        <v>346</v>
       </c>
     </row>
     <row r="360">
@@ -7268,13 +7268,13 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>25052</v>
+        <v>47480</v>
       </c>
       <c r="D360" t="n">
-        <v>0.8949965644325067</v>
+        <v>0.6855599927391541</v>
       </c>
       <c r="E360" t="n">
-        <v>53</v>
+        <v>114</v>
       </c>
     </row>
     <row r="361">
@@ -7287,13 +7287,13 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>20931</v>
+        <v>43390</v>
       </c>
       <c r="D361" t="n">
-        <v>0.6375788618901868</v>
+        <v>0.5927573062261754</v>
       </c>
       <c r="E361" t="n">
-        <v>313</v>
+        <v>188</v>
       </c>
     </row>
     <row r="362">
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>25038</v>
+        <v>50348</v>
       </c>
       <c r="D362" t="n">
-        <v>0.8941220563433069</v>
+        <v>0.7506353240152478</v>
       </c>
       <c r="E362" t="n">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="363">
@@ -7325,13 +7325,13 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>23619</v>
+        <v>45536</v>
       </c>
       <c r="D363" t="n">
-        <v>0.8054844150165532</v>
+        <v>0.6414503539662371</v>
       </c>
       <c r="E363" t="n">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="364">
@@ -7344,13 +7344,13 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>23762</v>
+        <v>47191</v>
       </c>
       <c r="D364" t="n">
-        <v>0.8144168904990943</v>
+        <v>0.679002541296061</v>
       </c>
       <c r="E364" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="365">
@@ -7363,13 +7363,13 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>25779</v>
+        <v>56329</v>
       </c>
       <c r="D365" t="n">
-        <v>0.9404085202073833</v>
+        <v>0.8863450717008532</v>
       </c>
       <c r="E365" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="366">
@@ -7382,13 +7382,13 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>26024</v>
+        <v>53266</v>
       </c>
       <c r="D366" t="n">
-        <v>0.9557124117683803</v>
+        <v>0.8168451624614268</v>
       </c>
       <c r="E366" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="367">
@@ -7401,13 +7401,13 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>24149</v>
+        <v>50467</v>
       </c>
       <c r="D367" t="n">
-        <v>0.838590792679118</v>
+        <v>0.7533354510800508</v>
       </c>
       <c r="E367" t="n">
-        <v>113</v>
+        <v>72</v>
       </c>
     </row>
     <row r="368">
@@ -7420,13 +7420,13 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>25986</v>
+        <v>55069</v>
       </c>
       <c r="D368" t="n">
-        <v>0.9533387469548379</v>
+        <v>0.8577554910147032</v>
       </c>
       <c r="E368" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="369">
@@ -7439,13 +7439,13 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>22903</v>
+        <v>36327</v>
       </c>
       <c r="D369" t="n">
-        <v>0.7607595727403336</v>
+        <v>0.4324968233799237</v>
       </c>
       <c r="E369" t="n">
-        <v>198</v>
+        <v>323</v>
       </c>
     </row>
     <row r="370">
@@ -7458,13 +7458,13 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>23256</v>
+        <v>39341</v>
       </c>
       <c r="D370" t="n">
-        <v>0.7828096695608721</v>
+        <v>0.5008849155926666</v>
       </c>
       <c r="E370" t="n">
-        <v>173</v>
+        <v>262</v>
       </c>
     </row>
     <row r="371">
@@ -7477,13 +7477,13 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>24096</v>
+        <v>45187</v>
       </c>
       <c r="D371" t="n">
-        <v>0.8352801549128616</v>
+        <v>0.6335314939190416</v>
       </c>
       <c r="E371" t="n">
-        <v>119</v>
+        <v>156</v>
       </c>
     </row>
     <row r="372">
@@ -7496,13 +7496,13 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>18698</v>
+        <v>25118</v>
       </c>
       <c r="D372" t="n">
-        <v>0.4980948216628147</v>
+        <v>0.1781630059901979</v>
       </c>
       <c r="E372" t="n">
-        <v>402</v>
+        <v>463</v>
       </c>
     </row>
     <row r="373">
@@ -7515,13 +7515,13 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>20365</v>
+        <v>33663</v>
       </c>
       <c r="D373" t="n">
-        <v>0.6022237491411081</v>
+        <v>0.3720502813577782</v>
       </c>
       <c r="E373" t="n">
-        <v>342</v>
+        <v>370</v>
       </c>
     </row>
     <row r="374">
@@ -7534,13 +7534,13 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>23326</v>
+        <v>42755</v>
       </c>
       <c r="D374" t="n">
-        <v>0.7871822100068712</v>
+        <v>0.5783490651660919</v>
       </c>
       <c r="E374" t="n">
-        <v>167</v>
+        <v>199</v>
       </c>
     </row>
     <row r="375">
@@ -7553,13 +7553,13 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>23793</v>
+        <v>49976</v>
       </c>
       <c r="D375" t="n">
-        <v>0.8163533012680367</v>
+        <v>0.7421945906698131</v>
       </c>
       <c r="E375" t="n">
-        <v>139</v>
+        <v>80</v>
       </c>
     </row>
     <row r="376">
@@ -7572,13 +7572,13 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>24455</v>
+        <v>47830</v>
       </c>
       <c r="D376" t="n">
-        <v>0.8577050409144856</v>
+        <v>0.6935015429297513</v>
       </c>
       <c r="E376" t="n">
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
     <row r="377">
@@ -7591,13 +7591,13 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>21948</v>
+        <v>37022</v>
       </c>
       <c r="D377" t="n">
-        <v>0.7011056280842026</v>
+        <v>0.4482664730441097</v>
       </c>
       <c r="E377" t="n">
-        <v>259</v>
+        <v>310</v>
       </c>
     </row>
     <row r="378">
@@ -7610,13 +7610,13 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>22008</v>
+        <v>39044</v>
       </c>
       <c r="D378" t="n">
-        <v>0.7048535198950591</v>
+        <v>0.4941459430023598</v>
       </c>
       <c r="E378" t="n">
-        <v>256</v>
+        <v>271</v>
       </c>
     </row>
     <row r="379">
@@ -7629,13 +7629,13 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>24525</v>
+        <v>39716</v>
       </c>
       <c r="D379" t="n">
-        <v>0.8620775813604847</v>
+        <v>0.5093937193683064</v>
       </c>
       <c r="E379" t="n">
-        <v>86</v>
+        <v>254</v>
       </c>
     </row>
     <row r="380">
@@ -7648,13 +7648,13 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>17980</v>
+        <v>31285</v>
       </c>
       <c r="D380" t="n">
-        <v>0.4532450496595665</v>
+        <v>0.3180931203485206</v>
       </c>
       <c r="E380" t="n">
-        <v>427</v>
+        <v>395</v>
       </c>
     </row>
     <row r="381">
@@ -7667,13 +7667,13 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>20396</v>
+        <v>37519</v>
       </c>
       <c r="D381" t="n">
-        <v>0.6041601599100506</v>
+        <v>0.4595434743147577</v>
       </c>
       <c r="E381" t="n">
-        <v>339</v>
+        <v>299</v>
       </c>
     </row>
     <row r="382">
@@ -7686,13 +7686,13 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>23972</v>
+        <v>48631</v>
       </c>
       <c r="D382" t="n">
-        <v>0.8275345118370916</v>
+        <v>0.711676347794518</v>
       </c>
       <c r="E382" t="n">
-        <v>125</v>
+        <v>96</v>
       </c>
     </row>
     <row r="383">
@@ -7705,13 +7705,13 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>21099</v>
+        <v>38050</v>
       </c>
       <c r="D383" t="n">
-        <v>0.6480729589605847</v>
+        <v>0.4715919404610637</v>
       </c>
       <c r="E383" t="n">
-        <v>302</v>
+        <v>290</v>
       </c>
     </row>
     <row r="384">
@@ -7724,13 +7724,13 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>23490</v>
+        <v>42071</v>
       </c>
       <c r="D384" t="n">
-        <v>0.7974264476232119</v>
+        <v>0.5628290070793247</v>
       </c>
       <c r="E384" t="n">
-        <v>159</v>
+        <v>206</v>
       </c>
     </row>
     <row r="385">
@@ -7743,13 +7743,13 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>26185</v>
+        <v>52048</v>
       </c>
       <c r="D385" t="n">
-        <v>0.9657692547941783</v>
+        <v>0.7892085677981485</v>
       </c>
       <c r="E385" t="n">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="386">
@@ -7762,13 +7762,13 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>18424</v>
+        <v>24402</v>
       </c>
       <c r="D386" t="n">
-        <v>0.4809794490599038</v>
+        <v>0.1619168633145761</v>
       </c>
       <c r="E386" t="n">
-        <v>412</v>
+        <v>471</v>
       </c>
     </row>
     <row r="387">
@@ -7781,13 +7781,13 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>25048</v>
+        <v>54760</v>
       </c>
       <c r="D387" t="n">
-        <v>0.8947467049784497</v>
+        <v>0.850744236703576</v>
       </c>
       <c r="E387" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="388">
@@ -7800,13 +7800,13 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>24822</v>
+        <v>53782</v>
       </c>
       <c r="D388" t="n">
-        <v>0.8806296458242239</v>
+        <v>0.8285532764567072</v>
       </c>
       <c r="E388" t="n">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="389">
@@ -7819,13 +7819,13 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>22262</v>
+        <v>43332</v>
       </c>
       <c r="D389" t="n">
-        <v>0.7207195952276845</v>
+        <v>0.5914412779088764</v>
       </c>
       <c r="E389" t="n">
-        <v>240</v>
+        <v>190</v>
       </c>
     </row>
     <row r="390">
@@ -7838,13 +7838,13 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>25501</v>
+        <v>52034</v>
       </c>
       <c r="D390" t="n">
-        <v>0.9230432881504154</v>
+        <v>0.7888909057905246</v>
       </c>
       <c r="E390" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="391">
@@ -7857,13 +7857,13 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>23705</v>
+        <v>43043</v>
       </c>
       <c r="D391" t="n">
-        <v>0.8108563932787807</v>
+        <v>0.5848838264657833</v>
       </c>
       <c r="E391" t="n">
-        <v>147</v>
+        <v>196</v>
       </c>
     </row>
     <row r="392">
@@ -7876,13 +7876,13 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>22046</v>
+        <v>40062</v>
       </c>
       <c r="D392" t="n">
-        <v>0.7072271847086015</v>
+        <v>0.5172445089852968</v>
       </c>
       <c r="E392" t="n">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="393">
@@ -7895,13 +7895,13 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>20744</v>
+        <v>37002</v>
       </c>
       <c r="D393" t="n">
-        <v>0.6258979324130177</v>
+        <v>0.4478126701760755</v>
       </c>
       <c r="E393" t="n">
-        <v>325</v>
+        <v>311</v>
       </c>
     </row>
     <row r="394">
@@ -7914,13 +7914,13 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>26462</v>
+        <v>60355</v>
       </c>
       <c r="D394" t="n">
-        <v>0.983072021987632</v>
+        <v>0.9776955890361227</v>
       </c>
       <c r="E394" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395">
@@ -7933,13 +7933,13 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>23544</v>
+        <v>47520</v>
       </c>
       <c r="D395" t="n">
-        <v>0.8007995502529827</v>
+        <v>0.6864675984752223</v>
       </c>
       <c r="E395" t="n">
-        <v>156</v>
+        <v>112</v>
       </c>
     </row>
     <row r="396">
@@ -7952,13 +7952,13 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>20258</v>
+        <v>33627</v>
       </c>
       <c r="D396" t="n">
-        <v>0.5955400087450808</v>
+        <v>0.3712334361953167</v>
       </c>
       <c r="E396" t="n">
-        <v>347</v>
+        <v>371</v>
       </c>
     </row>
     <row r="397">
@@ -7971,13 +7971,13 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>22945</v>
+        <v>43998</v>
       </c>
       <c r="D397" t="n">
-        <v>0.7633830970079331</v>
+        <v>0.6065529134144128</v>
       </c>
       <c r="E397" t="n">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="398">
@@ -7990,13 +7990,13 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>23986</v>
+        <v>41988</v>
       </c>
       <c r="D398" t="n">
-        <v>0.8284090199262915</v>
+        <v>0.5609457251769832</v>
       </c>
       <c r="E398" t="n">
-        <v>124</v>
+        <v>211</v>
       </c>
     </row>
     <row r="399">
@@ -8009,13 +8009,13 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>23576</v>
+        <v>49165</v>
       </c>
       <c r="D399" t="n">
-        <v>0.8027984258854395</v>
+        <v>0.7237928843710292</v>
       </c>
       <c r="E399" t="n">
-        <v>154</v>
+        <v>88</v>
       </c>
     </row>
     <row r="400">
@@ -8028,13 +8028,13 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>25395</v>
+        <v>49218</v>
       </c>
       <c r="D400" t="n">
-        <v>0.9164220126179025</v>
+        <v>0.7249954619713197</v>
       </c>
       <c r="E400" t="n">
-        <v>39</v>
+        <v>87</v>
       </c>
     </row>
     <row r="401">
@@ -8047,13 +8047,13 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>25139</v>
+        <v>55115</v>
       </c>
       <c r="D401" t="n">
-        <v>0.9004310075582485</v>
+        <v>0.8587992376111817</v>
       </c>
       <c r="E401" t="n">
-        <v>48</v>
+        <v>19</v>
       </c>
     </row>
     <row r="402">
@@ -8066,13 +8066,13 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>22425</v>
+        <v>36205</v>
       </c>
       <c r="D402" t="n">
-        <v>0.730901367980511</v>
+        <v>0.4297286258849156</v>
       </c>
       <c r="E402" t="n">
-        <v>231</v>
+        <v>325</v>
       </c>
     </row>
     <row r="403">
@@ -8085,13 +8085,13 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>25208</v>
+        <v>52670</v>
       </c>
       <c r="D403" t="n">
-        <v>0.9047410831407333</v>
+        <v>0.8033218369940098</v>
       </c>
       <c r="E403" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="404">
@@ -8104,13 +8104,13 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>25435</v>
+        <v>55466</v>
       </c>
       <c r="D404" t="n">
-        <v>0.9189206071584733</v>
+        <v>0.8667634779451806</v>
       </c>
       <c r="E404" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="405">
@@ -8123,13 +8123,13 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>20544</v>
+        <v>38546</v>
       </c>
       <c r="D405" t="n">
-        <v>0.6134049597101631</v>
+        <v>0.48284625158831</v>
       </c>
       <c r="E405" t="n">
-        <v>334</v>
+        <v>280</v>
       </c>
     </row>
     <row r="406">
@@ -8142,13 +8142,13 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>16410</v>
+        <v>26889</v>
       </c>
       <c r="D406" t="n">
-        <v>0.3551752139421576</v>
+        <v>0.2183472499546197</v>
       </c>
       <c r="E406" t="n">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="407">
@@ -8161,13 +8161,13 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>21828</v>
+        <v>41140</v>
       </c>
       <c r="D407" t="n">
-        <v>0.6936098444624899</v>
+        <v>0.5417044835723361</v>
       </c>
       <c r="E407" t="n">
-        <v>268</v>
+        <v>230</v>
       </c>
     </row>
     <row r="408">
@@ -8180,13 +8180,13 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>16580</v>
+        <v>29528</v>
       </c>
       <c r="D408" t="n">
-        <v>0.365794240739584</v>
+        <v>0.2782265383917226</v>
       </c>
       <c r="E408" t="n">
-        <v>459</v>
+        <v>425</v>
       </c>
     </row>
     <row r="409">
@@ -8199,13 +8199,13 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>24019</v>
+        <v>50346</v>
       </c>
       <c r="D409" t="n">
-        <v>0.8304703604222625</v>
+        <v>0.7505899437284443</v>
       </c>
       <c r="E409" t="n">
-        <v>122</v>
+        <v>74</v>
       </c>
     </row>
     <row r="410">
@@ -8218,13 +8218,13 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>20944</v>
+        <v>34491</v>
       </c>
       <c r="D410" t="n">
-        <v>0.6383909051158724</v>
+        <v>0.390837720094391</v>
       </c>
       <c r="E410" t="n">
-        <v>311</v>
+        <v>356</v>
       </c>
     </row>
     <row r="411">
@@ -8237,13 +8237,13 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>15757</v>
+        <v>28979</v>
       </c>
       <c r="D411" t="n">
-        <v>0.3143856580673371</v>
+        <v>0.2657696496641859</v>
       </c>
       <c r="E411" t="n">
-        <v>466</v>
+        <v>434</v>
       </c>
     </row>
     <row r="412">
@@ -8256,13 +8256,13 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>18359</v>
+        <v>30703</v>
       </c>
       <c r="D412" t="n">
-        <v>0.476919232931476</v>
+        <v>0.3048874568887275</v>
       </c>
       <c r="E412" t="n">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="413">
@@ -8275,13 +8275,13 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>22569</v>
+        <v>45136</v>
       </c>
       <c r="D413" t="n">
-        <v>0.7398963083265663</v>
+        <v>0.6323742966055546</v>
       </c>
       <c r="E413" t="n">
-        <v>225</v>
+        <v>158</v>
       </c>
     </row>
     <row r="414">
@@ -8294,13 +8294,13 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>16956</v>
+        <v>29346</v>
       </c>
       <c r="D414" t="n">
-        <v>0.3892810294209507</v>
+        <v>0.2740969322926121</v>
       </c>
       <c r="E414" t="n">
-        <v>450</v>
+        <v>429</v>
       </c>
     </row>
     <row r="415">
@@ -8313,13 +8313,13 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>24618</v>
+        <v>51154</v>
       </c>
       <c r="D415" t="n">
-        <v>0.8678868136673121</v>
+        <v>0.7689235795970231</v>
       </c>
       <c r="E415" t="n">
-        <v>79</v>
+        <v>60</v>
       </c>
     </row>
     <row r="416">
@@ -8332,13 +8332,13 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>14644</v>
+        <v>18869</v>
       </c>
       <c r="D416" t="n">
-        <v>0.244862264975951</v>
+        <v>0.0363722998729352</v>
       </c>
       <c r="E416" t="n">
-        <v>482</v>
+        <v>495</v>
       </c>
     </row>
     <row r="417">
@@ -8351,13 +8351,13 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>16676</v>
+        <v>30097</v>
       </c>
       <c r="D417" t="n">
-        <v>0.3717908676369542</v>
+        <v>0.2911372299872935</v>
       </c>
       <c r="E417" t="n">
-        <v>458</v>
+        <v>419</v>
       </c>
     </row>
     <row r="418">
@@ -8370,13 +8370,13 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>24566</v>
+        <v>50042</v>
       </c>
       <c r="D418" t="n">
-        <v>0.86463864076457</v>
+        <v>0.7436921401343256</v>
       </c>
       <c r="E418" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="419">
@@ -8389,13 +8389,13 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>23042</v>
+        <v>45811</v>
       </c>
       <c r="D419" t="n">
-        <v>0.7694421887688175</v>
+        <v>0.6476901434017063</v>
       </c>
       <c r="E419" t="n">
-        <v>187</v>
+        <v>146</v>
       </c>
     </row>
     <row r="420">
@@ -8408,13 +8408,13 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>25041</v>
+        <v>51264</v>
       </c>
       <c r="D420" t="n">
-        <v>0.8943094509338497</v>
+        <v>0.7714194953712108</v>
       </c>
       <c r="E420" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="421">
@@ -8427,13 +8427,13 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>24072</v>
+        <v>48655</v>
       </c>
       <c r="D421" t="n">
-        <v>0.8337809981885189</v>
+        <v>0.712220911236159</v>
       </c>
       <c r="E421" t="n">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="422">
@@ -8446,13 +8446,13 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>23631</v>
+        <v>42035</v>
       </c>
       <c r="D422" t="n">
-        <v>0.8062339933787245</v>
+        <v>0.5620121619168633</v>
       </c>
       <c r="E422" t="n">
-        <v>151</v>
+        <v>207</v>
       </c>
     </row>
     <row r="423">
@@ -8465,13 +8465,13 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>19163</v>
+        <v>29990</v>
       </c>
       <c r="D423" t="n">
-        <v>0.5271409831969517</v>
+        <v>0.288709384643311</v>
       </c>
       <c r="E423" t="n">
-        <v>393</v>
+        <v>420</v>
       </c>
     </row>
     <row r="424">
@@ -8484,13 +8484,13 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>22033</v>
+        <v>41645</v>
       </c>
       <c r="D424" t="n">
-        <v>0.7064151414829158</v>
+        <v>0.5531630059901979</v>
       </c>
       <c r="E424" t="n">
-        <v>255</v>
+        <v>219</v>
       </c>
     </row>
     <row r="425">
@@ -8503,13 +8503,13 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>25926</v>
+        <v>49265</v>
       </c>
       <c r="D425" t="n">
-        <v>0.9495908551439816</v>
+        <v>0.7260618987111999</v>
       </c>
       <c r="E425" t="n">
-        <v>23</v>
+        <v>86</v>
       </c>
     </row>
     <row r="426">
@@ -8522,13 +8522,13 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>23132</v>
+        <v>36394</v>
       </c>
       <c r="D426" t="n">
-        <v>0.7750640264851021</v>
+        <v>0.4340170629878381</v>
       </c>
       <c r="E426" t="n">
-        <v>183</v>
+        <v>322</v>
       </c>
     </row>
     <row r="427">
@@ -8541,13 +8541,13 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>22521</v>
+        <v>46626</v>
       </c>
       <c r="D427" t="n">
-        <v>0.7368979948778812</v>
+        <v>0.666182610274097</v>
       </c>
       <c r="E427" t="n">
-        <v>228</v>
+        <v>131</v>
       </c>
     </row>
     <row r="428">
@@ -8560,13 +8560,13 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>23876</v>
+        <v>43168</v>
       </c>
       <c r="D428" t="n">
-        <v>0.8215378849397214</v>
+        <v>0.5877200943909966</v>
       </c>
       <c r="E428" t="n">
-        <v>132</v>
+        <v>193</v>
       </c>
     </row>
     <row r="429">
@@ -8579,13 +8579,13 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>23015</v>
+        <v>50010</v>
       </c>
       <c r="D429" t="n">
-        <v>0.7677556374539322</v>
+        <v>0.742966055545471</v>
       </c>
       <c r="E429" t="n">
-        <v>192</v>
+        <v>78</v>
       </c>
     </row>
     <row r="430">
@@ -8598,13 +8598,13 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>21475</v>
+        <v>36414</v>
       </c>
       <c r="D430" t="n">
-        <v>0.6715597476419514</v>
+        <v>0.4344708658558722</v>
       </c>
       <c r="E430" t="n">
-        <v>286</v>
+        <v>320</v>
       </c>
     </row>
     <row r="431">
@@ -8617,13 +8617,13 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>24342</v>
+        <v>45995</v>
       </c>
       <c r="D431" t="n">
-        <v>0.8506465113373727</v>
+        <v>0.6518651297876202</v>
       </c>
       <c r="E431" t="n">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
     <row r="432">
@@ -8636,13 +8636,13 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>26266</v>
+        <v>58361</v>
       </c>
       <c r="D432" t="n">
-        <v>0.9708289087388344</v>
+        <v>0.9324514430931203</v>
       </c>
       <c r="E432" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="433">
@@ -8655,13 +8655,13 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>20829</v>
+        <v>35446</v>
       </c>
       <c r="D433" t="n">
-        <v>0.6312074458117309</v>
+        <v>0.4125068070430205</v>
       </c>
       <c r="E433" t="n">
-        <v>320</v>
+        <v>339</v>
       </c>
     </row>
     <row r="434">
@@ -8674,13 +8674,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>24543</v>
+        <v>48272</v>
       </c>
       <c r="D434" t="n">
-        <v>0.8632019489037417</v>
+        <v>0.7035305863133055</v>
       </c>
       <c r="E434" t="n">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="435">
@@ -8693,13 +8693,13 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>21056</v>
+        <v>39272</v>
       </c>
       <c r="D435" t="n">
-        <v>0.645386969829471</v>
+        <v>0.4993192956979488</v>
       </c>
       <c r="E435" t="n">
-        <v>307</v>
+        <v>265</v>
       </c>
     </row>
     <row r="436">
@@ -8712,13 +8712,13 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>22245</v>
+        <v>40558</v>
       </c>
       <c r="D436" t="n">
-        <v>0.7196576925479418</v>
+        <v>0.5284988201125431</v>
       </c>
       <c r="E436" t="n">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="437">
@@ -8731,13 +8731,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>23749</v>
+        <v>48878</v>
       </c>
       <c r="D437" t="n">
-        <v>0.8136048472734088</v>
+        <v>0.7172808132147395</v>
       </c>
       <c r="E437" t="n">
-        <v>142</v>
+        <v>93</v>
       </c>
     </row>
     <row r="438">
@@ -8750,13 +8750,13 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>19496</v>
+        <v>37168</v>
       </c>
       <c r="D438" t="n">
-        <v>0.5479417827472047</v>
+        <v>0.4515792339807588</v>
       </c>
       <c r="E438" t="n">
-        <v>379</v>
+        <v>305</v>
       </c>
     </row>
     <row r="439">
@@ -8769,13 +8769,13 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>23828</v>
+        <v>46766</v>
       </c>
       <c r="D439" t="n">
-        <v>0.8185395714910363</v>
+        <v>0.6693592303503358</v>
       </c>
       <c r="E439" t="n">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="440">
@@ -8788,13 +8788,13 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>19440</v>
+        <v>33350</v>
       </c>
       <c r="D440" t="n">
-        <v>0.5444437503904054</v>
+        <v>0.3649482664730441</v>
       </c>
       <c r="E440" t="n">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="441">
@@ -8807,13 +8807,13 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>23293</v>
+        <v>46401</v>
       </c>
       <c r="D441" t="n">
-        <v>0.7851208695109001</v>
+        <v>0.661077328008713</v>
       </c>
       <c r="E441" t="n">
-        <v>170</v>
+        <v>135</v>
       </c>
     </row>
     <row r="442">
@@ -8826,13 +8826,13 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>24631</v>
+        <v>44044</v>
       </c>
       <c r="D442" t="n">
-        <v>0.8686988568929976</v>
+        <v>0.6075966600108913</v>
       </c>
       <c r="E442" t="n">
-        <v>77</v>
+        <v>178</v>
       </c>
     </row>
     <row r="443">
@@ -8845,13 +8845,13 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>25201</v>
+        <v>54174</v>
       </c>
       <c r="D443" t="n">
-        <v>0.9043038290961334</v>
+        <v>0.8374478126701761</v>
       </c>
       <c r="E443" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="444">
@@ -8864,13 +8864,13 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>22250</v>
+        <v>41181</v>
       </c>
       <c r="D444" t="n">
-        <v>0.7199700168655131</v>
+        <v>0.5426347794518062</v>
       </c>
       <c r="E444" t="n">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="445">
@@ -8883,13 +8883,13 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>24502</v>
+        <v>51744</v>
       </c>
       <c r="D445" t="n">
-        <v>0.8606408894996564</v>
+        <v>0.7823107642040298</v>
       </c>
       <c r="E445" t="n">
-        <v>88</v>
+        <v>50</v>
       </c>
     </row>
     <row r="446">
@@ -8902,13 +8902,13 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>25016</v>
+        <v>53556</v>
       </c>
       <c r="D446" t="n">
-        <v>0.8927478293459928</v>
+        <v>0.8234253040479216</v>
       </c>
       <c r="E446" t="n">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="447">
@@ -8921,13 +8921,13 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>20902</v>
+        <v>38686</v>
       </c>
       <c r="D447" t="n">
-        <v>0.6357673808482729</v>
+        <v>0.4860228716645489</v>
       </c>
       <c r="E447" t="n">
-        <v>316</v>
+        <v>277</v>
       </c>
     </row>
     <row r="448">
@@ -8940,13 +8940,13 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>22778</v>
+        <v>36321</v>
       </c>
       <c r="D448" t="n">
-        <v>0.7529514648010495</v>
+        <v>0.4323606825195135</v>
       </c>
       <c r="E448" t="n">
-        <v>203</v>
+        <v>324</v>
       </c>
     </row>
     <row r="449">
@@ -8959,13 +8959,13 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>23961</v>
+        <v>48014</v>
       </c>
       <c r="D449" t="n">
-        <v>0.8268473983384347</v>
+        <v>0.6976765293156653</v>
       </c>
       <c r="E449" t="n">
-        <v>126</v>
+        <v>104</v>
       </c>
     </row>
     <row r="450">
@@ -8978,13 +8978,13 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>18405</v>
+        <v>34976</v>
       </c>
       <c r="D450" t="n">
-        <v>0.4797926166531326</v>
+        <v>0.4018424396442186</v>
       </c>
       <c r="E450" t="n">
-        <v>414</v>
+        <v>347</v>
       </c>
     </row>
     <row r="451">
@@ -8997,13 +8997,13 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>26006</v>
+        <v>51495</v>
       </c>
       <c r="D451" t="n">
-        <v>0.9545880442251233</v>
+        <v>0.7766609184970049</v>
       </c>
       <c r="E451" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="452">
@@ -9016,13 +9016,13 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>20593</v>
+        <v>37573</v>
       </c>
       <c r="D452" t="n">
-        <v>0.6164657380223624</v>
+        <v>0.4607687420584498</v>
       </c>
       <c r="E452" t="n">
-        <v>331</v>
+        <v>298</v>
       </c>
     </row>
     <row r="453">
@@ -9035,13 +9035,13 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>24715</v>
+        <v>46632</v>
       </c>
       <c r="D453" t="n">
-        <v>0.8739459054281966</v>
+        <v>0.6663187511345072</v>
       </c>
       <c r="E453" t="n">
-        <v>74</v>
+        <v>130</v>
       </c>
     </row>
     <row r="454">
@@ -9054,13 +9054,13 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>19305</v>
+        <v>34376</v>
       </c>
       <c r="D454" t="n">
-        <v>0.5360109938159785</v>
+        <v>0.3882283536031948</v>
       </c>
       <c r="E454" t="n">
-        <v>386</v>
+        <v>357</v>
       </c>
     </row>
     <row r="455">
@@ -9073,13 +9073,13 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>23517</v>
+        <v>47555</v>
       </c>
       <c r="D455" t="n">
-        <v>0.7991129989380973</v>
+        <v>0.6872617534942821</v>
       </c>
       <c r="E455" t="n">
-        <v>157</v>
+        <v>110</v>
       </c>
     </row>
     <row r="456">
@@ -9092,13 +9092,13 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>17128</v>
+        <v>29234</v>
       </c>
       <c r="D456" t="n">
-        <v>0.4000249859454057</v>
+        <v>0.271555636231621</v>
       </c>
       <c r="E456" t="n">
-        <v>445</v>
+        <v>431</v>
       </c>
     </row>
     <row r="457">
@@ -9111,13 +9111,13 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>17532</v>
+        <v>26182</v>
       </c>
       <c r="D457" t="n">
-        <v>0.4252607908051721</v>
+        <v>0.2023053185696134</v>
       </c>
       <c r="E457" t="n">
-        <v>436</v>
+        <v>454</v>
       </c>
     </row>
     <row r="458">
@@ -9130,13 +9130,13 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>24407</v>
+        <v>51361</v>
       </c>
       <c r="D458" t="n">
-        <v>0.8547067274658005</v>
+        <v>0.7736204392811763</v>
       </c>
       <c r="E458" t="n">
-        <v>96</v>
+        <v>56</v>
       </c>
     </row>
     <row r="459">
@@ -9149,13 +9149,13 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>25387</v>
+        <v>50837</v>
       </c>
       <c r="D459" t="n">
-        <v>0.9159222937097883</v>
+        <v>0.7617308041386821</v>
       </c>
       <c r="E459" t="n">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="460">
@@ -9168,13 +9168,13 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>18605</v>
+        <v>24220</v>
       </c>
       <c r="D460" t="n">
-        <v>0.4922855893559873</v>
+        <v>0.1577872572154656</v>
       </c>
       <c r="E460" t="n">
-        <v>405</v>
+        <v>473</v>
       </c>
     </row>
     <row r="461">
@@ -9187,13 +9187,13 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>23498</v>
+        <v>47311</v>
       </c>
       <c r="D461" t="n">
-        <v>0.7979261665313261</v>
+        <v>0.6817253585042657</v>
       </c>
       <c r="E461" t="n">
-        <v>158</v>
+        <v>117</v>
       </c>
     </row>
     <row r="462">
@@ -9206,13 +9206,13 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>22177</v>
+        <v>38730</v>
       </c>
       <c r="D462" t="n">
-        <v>0.7154100818289713</v>
+        <v>0.487021237974224</v>
       </c>
       <c r="E462" t="n">
-        <v>248</v>
+        <v>276</v>
       </c>
     </row>
     <row r="463">
@@ -9225,13 +9225,13 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>23220</v>
+        <v>45482</v>
       </c>
       <c r="D463" t="n">
-        <v>0.7805609344743581</v>
+        <v>0.6402250862225449</v>
       </c>
       <c r="E463" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="464">
@@ -9244,13 +9244,13 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>15658</v>
+        <v>25998</v>
       </c>
       <c r="D464" t="n">
-        <v>0.3082016365794241</v>
+        <v>0.1981303321836994</v>
       </c>
       <c r="E464" t="n">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="465">
@@ -9263,13 +9263,13 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>20454</v>
+        <v>38199</v>
       </c>
       <c r="D465" t="n">
-        <v>0.6077831219938784</v>
+        <v>0.474972771827918</v>
       </c>
       <c r="E465" t="n">
-        <v>336</v>
+        <v>287</v>
       </c>
     </row>
     <row r="466">
@@ -9282,13 +9282,13 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>19183</v>
+        <v>30959</v>
       </c>
       <c r="D466" t="n">
-        <v>0.5283902804672371</v>
+        <v>0.3106961335995643</v>
       </c>
       <c r="E466" t="n">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="467">
@@ -9301,13 +9301,13 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>23854</v>
+        <v>47997</v>
       </c>
       <c r="D467" t="n">
-        <v>0.8201636579424074</v>
+        <v>0.6972907968778362</v>
       </c>
       <c r="E467" t="n">
-        <v>135</v>
+        <v>105</v>
       </c>
     </row>
     <row r="468">
@@ -9320,13 +9320,13 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>17009</v>
+        <v>28341</v>
       </c>
       <c r="D468" t="n">
-        <v>0.3925916671872072</v>
+        <v>0.2512933381738973</v>
       </c>
       <c r="E468" t="n">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="469">
@@ -9339,13 +9339,13 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>14369</v>
+        <v>19565</v>
       </c>
       <c r="D469" t="n">
-        <v>0.2276844275095259</v>
+        <v>0.05216463968052278</v>
       </c>
       <c r="E469" t="n">
-        <v>487</v>
+        <v>494</v>
       </c>
     </row>
     <row r="470">
@@ -9358,13 +9358,13 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>24344</v>
+        <v>51994</v>
       </c>
       <c r="D470" t="n">
-        <v>0.8507714410644013</v>
+        <v>0.7879833000544564</v>
       </c>
       <c r="E470" t="n">
-        <v>99</v>
+        <v>47</v>
       </c>
     </row>
     <row r="471">
@@ -9377,13 +9377,13 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>20978</v>
+        <v>33304</v>
       </c>
       <c r="D471" t="n">
-        <v>0.6405147104753576</v>
+        <v>0.3639045198765656</v>
       </c>
       <c r="E471" t="n">
-        <v>309</v>
+        <v>373</v>
       </c>
     </row>
     <row r="472">
@@ -9396,13 +9396,13 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>21999</v>
+        <v>37041</v>
       </c>
       <c r="D472" t="n">
-        <v>0.7042913361234305</v>
+        <v>0.4486975857687421</v>
       </c>
       <c r="E472" t="n">
-        <v>258</v>
+        <v>309</v>
       </c>
     </row>
     <row r="473">
@@ -9415,10 +9415,10 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>19529</v>
+        <v>33075</v>
       </c>
       <c r="D473" t="n">
-        <v>0.5500031232431757</v>
+        <v>0.3587084770375749</v>
       </c>
       <c r="E473" t="n">
         <v>376</v>
@@ -9434,13 +9434,13 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>15814</v>
+        <v>24946</v>
       </c>
       <c r="D474" t="n">
-        <v>0.3179461552876507</v>
+        <v>0.1742603013251044</v>
       </c>
       <c r="E474" t="n">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="475">
@@ -9453,13 +9453,13 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>17915</v>
+        <v>30199</v>
       </c>
       <c r="D475" t="n">
-        <v>0.4491848335311387</v>
+        <v>0.2934516246142675</v>
       </c>
       <c r="E475" t="n">
-        <v>429</v>
+        <v>417</v>
       </c>
     </row>
     <row r="476">
@@ -9472,13 +9472,13 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>18288</v>
+        <v>31163</v>
       </c>
       <c r="D476" t="n">
-        <v>0.4724842276219626</v>
+        <v>0.3153249228535124</v>
       </c>
       <c r="E476" t="n">
-        <v>417</v>
+        <v>399</v>
       </c>
     </row>
     <row r="477">
@@ -9491,13 +9491,13 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>14989</v>
+        <v>25138</v>
       </c>
       <c r="D477" t="n">
-        <v>0.2664126428883753</v>
+        <v>0.178616808858232</v>
       </c>
       <c r="E477" t="n">
-        <v>481</v>
+        <v>462</v>
       </c>
     </row>
     <row r="478">
@@ -9510,13 +9510,13 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>23942</v>
+        <v>43593</v>
       </c>
       <c r="D478" t="n">
-        <v>0.8256605659316635</v>
+        <v>0.5973634053367217</v>
       </c>
       <c r="E478" t="n">
-        <v>128</v>
+        <v>184</v>
       </c>
     </row>
     <row r="479">
@@ -9529,13 +9529,13 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>19752</v>
+        <v>34910</v>
       </c>
       <c r="D479" t="n">
-        <v>0.5639327878068586</v>
+        <v>0.4003448901797059</v>
       </c>
       <c r="E479" t="n">
-        <v>367</v>
+        <v>350</v>
       </c>
     </row>
     <row r="480">
@@ -9548,13 +9548,13 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>16292</v>
+        <v>21393</v>
       </c>
       <c r="D480" t="n">
-        <v>0.3478043600474733</v>
+        <v>0.09364222181884189</v>
       </c>
       <c r="E480" t="n">
-        <v>463</v>
+        <v>488</v>
       </c>
     </row>
     <row r="481">
@@ -9567,13 +9567,13 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>20207</v>
+        <v>39126</v>
       </c>
       <c r="D481" t="n">
-        <v>0.5923543007058529</v>
+        <v>0.4960065347612997</v>
       </c>
       <c r="E481" t="n">
-        <v>349</v>
+        <v>268</v>
       </c>
     </row>
     <row r="482">
@@ -9586,13 +9586,13 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>22256</v>
+        <v>42010</v>
       </c>
       <c r="D482" t="n">
-        <v>0.7203448060465988</v>
+        <v>0.5614449083318207</v>
       </c>
       <c r="E482" t="n">
-        <v>242</v>
+        <v>209</v>
       </c>
     </row>
     <row r="483">
@@ -9605,13 +9605,13 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>24106</v>
+        <v>44719</v>
       </c>
       <c r="D483" t="n">
-        <v>0.8359048035480042</v>
+        <v>0.622912506807043</v>
       </c>
       <c r="E483" t="n">
-        <v>118</v>
+        <v>165</v>
       </c>
     </row>
     <row r="484">
@@ -9624,13 +9624,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>24741</v>
+        <v>47065</v>
       </c>
       <c r="D484" t="n">
-        <v>0.8755699918795677</v>
+        <v>0.6761435832274459</v>
       </c>
       <c r="E484" t="n">
-        <v>71</v>
+        <v>123</v>
       </c>
     </row>
     <row r="485">
@@ -9643,13 +9643,13 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>24087</v>
+        <v>43895</v>
       </c>
       <c r="D485" t="n">
-        <v>0.834717971141233</v>
+        <v>0.604215828644037</v>
       </c>
       <c r="E485" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="486">
@@ -9662,13 +9662,13 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>23019</v>
+        <v>45106</v>
       </c>
       <c r="D486" t="n">
-        <v>0.7680054969079892</v>
+        <v>0.6316935923035033</v>
       </c>
       <c r="E486" t="n">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="487">
@@ -9681,13 +9681,13 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>15390</v>
+        <v>21980</v>
       </c>
       <c r="D487" t="n">
-        <v>0.2914610531575988</v>
+        <v>0.1069613359956435</v>
       </c>
       <c r="E487" t="n">
-        <v>472</v>
+        <v>485</v>
       </c>
     </row>
     <row r="488">
@@ -9700,10 +9700,10 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>24450</v>
+        <v>49012</v>
       </c>
       <c r="D488" t="n">
-        <v>0.8573927165969142</v>
+        <v>0.7203212924305682</v>
       </c>
       <c r="E488" t="n">
         <v>92</v>
@@ -9719,13 +9719,13 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>19451</v>
+        <v>31208</v>
       </c>
       <c r="D489" t="n">
-        <v>0.5451308638890624</v>
+        <v>0.3163459793065892</v>
       </c>
       <c r="E489" t="n">
-        <v>380</v>
+        <v>398</v>
       </c>
     </row>
     <row r="490">
@@ -9738,13 +9738,13 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>19520</v>
+        <v>27313</v>
       </c>
       <c r="D490" t="n">
-        <v>0.5494409394715473</v>
+        <v>0.2279678707569432</v>
       </c>
       <c r="E490" t="n">
-        <v>377</v>
+        <v>451</v>
       </c>
     </row>
     <row r="491">
@@ -9757,13 +9757,13 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>22604</v>
+        <v>43049</v>
       </c>
       <c r="D491" t="n">
-        <v>0.7420825785495658</v>
+        <v>0.5850199673261935</v>
       </c>
       <c r="E491" t="n">
-        <v>221</v>
+        <v>195</v>
       </c>
     </row>
     <row r="492">
@@ -9776,13 +9776,13 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>24450</v>
+        <v>47236</v>
       </c>
       <c r="D492" t="n">
-        <v>0.8573927165969142</v>
+        <v>0.6800235977491378</v>
       </c>
       <c r="E492" t="n">
-        <v>93</v>
+        <v>119</v>
       </c>
     </row>
     <row r="493">
@@ -9795,13 +9795,13 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>25434</v>
+        <v>52942</v>
       </c>
       <c r="D493" t="n">
-        <v>0.9188581422949591</v>
+        <v>0.8094935559992739</v>
       </c>
       <c r="E493" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="494">
@@ -9814,13 +9814,13 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>20640</v>
+        <v>33871</v>
       </c>
       <c r="D494" t="n">
-        <v>0.6194015866075333</v>
+        <v>0.3767698311853331</v>
       </c>
       <c r="E494" t="n">
-        <v>328</v>
+        <v>365</v>
       </c>
     </row>
     <row r="495">
@@ -9833,13 +9833,13 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>19784</v>
+        <v>38070</v>
       </c>
       <c r="D495" t="n">
-        <v>0.5659316634393153</v>
+        <v>0.4720457433290978</v>
       </c>
       <c r="E495" t="n">
-        <v>365</v>
+        <v>289</v>
       </c>
     </row>
     <row r="496">
@@ -9852,13 +9852,13 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>16746</v>
+        <v>27809</v>
       </c>
       <c r="D496" t="n">
-        <v>0.3761634080829533</v>
+        <v>0.2392221818841895</v>
       </c>
       <c r="E496" t="n">
-        <v>456</v>
+        <v>443</v>
       </c>
     </row>
     <row r="497">
@@ -9871,13 +9871,13 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>17982</v>
+        <v>30489</v>
       </c>
       <c r="D497" t="n">
-        <v>0.4533699793865951</v>
+        <v>0.3000317662007624</v>
       </c>
       <c r="E497" t="n">
-        <v>426</v>
+        <v>411</v>
       </c>
     </row>
     <row r="498">
@@ -9890,13 +9890,13 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>18411</v>
+        <v>31112</v>
       </c>
       <c r="D498" t="n">
-        <v>0.4801674058342182</v>
+        <v>0.3141677255400254</v>
       </c>
       <c r="E498" t="n">
-        <v>413</v>
+        <v>401</v>
       </c>
     </row>
     <row r="499">
@@ -9909,13 +9909,13 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>20775</v>
+        <v>39522</v>
       </c>
       <c r="D499" t="n">
-        <v>0.6278343431819602</v>
+        <v>0.5049918315483753</v>
       </c>
       <c r="E499" t="n">
-        <v>322</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
